--- a/data/Intra_train.xlsx
+++ b/data/Intra_train.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - tju.edu.cn\Academic\NN\gru\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tjueducn-my.sharepoint.com/personal/jiayu_chen_tju_edu_cn/Documents/Academic/NN/gru/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E7BB20-77DC-4CE6-BF68-7F0E8CCE7AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{22E7BB20-77DC-4CE6-BF68-7F0E8CCE7AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD0CAF1E-CD4B-42B6-BED4-1D934AEFCA71}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>cg</t>
   </si>
@@ -52,6 +52,9 @@
   <si>
     <t>x1609</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intra</t>
   </si>
 </sst>
 </file>
@@ -383,15 +386,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G701"/>
+  <dimension ref="A1:H701"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="J7" sqref="J7:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,8 +416,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>979.9</v>
       </c>
@@ -436,8 +442,11 @@
       <c r="G2" s="1">
         <v>4.7614737035445698</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>688</v>
       </c>
@@ -459,8 +468,11 @@
       <c r="G3" s="1">
         <v>4.3956917789582599</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>542</v>
       </c>
@@ -482,8 +494,11 @@
       <c r="G4" s="1">
         <v>4.2545817403545998</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>899</v>
       </c>
@@ -505,8 +520,11 @@
       <c r="G5" s="1">
         <v>4.2407795898775902</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>668</v>
       </c>
@@ -528,8 +546,11 @@
       <c r="G6" s="1">
         <v>4.3747048169963101</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>999.7</v>
       </c>
@@ -551,8 +572,11 @@
       <c r="G7" s="1">
         <v>4.7600181689173304</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>180.4</v>
       </c>
@@ -574,8 +598,11 @@
       <c r="G8" s="1">
         <v>4.5195757787314799</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>768.1</v>
       </c>
@@ -597,8 +624,11 @@
       <c r="G9" s="1">
         <v>4.6858406307894001</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>70.5</v>
       </c>
@@ -620,8 +650,11 @@
       <c r="G10" s="1">
         <v>4.2525716450836901</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>96.1</v>
       </c>
@@ -643,8 +676,11 @@
       <c r="G11" s="1">
         <v>4.8528289699674998</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>326.8</v>
       </c>
@@ -666,8 +702,11 @@
       <c r="G12" s="1">
         <v>4.1592846594850004</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>968.8</v>
       </c>
@@ -689,8 +728,11 @@
       <c r="G13" s="1">
         <v>4.9699871490859602</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="1">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>409.1</v>
       </c>
@@ -712,8 +754,11 @@
       <c r="G14" s="1">
         <v>4.2668866248188397</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>336</v>
       </c>
@@ -735,8 +780,11 @@
       <c r="G15" s="1">
         <v>4.4464276750395397</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="1">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>31.5</v>
       </c>
@@ -758,8 +806,11 @@
       <c r="G16" s="1">
         <v>4.3865319771271896</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>383.2</v>
       </c>
@@ -781,8 +832,11 @@
       <c r="G17" s="1">
         <v>4.2357159517858598</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>538.5</v>
       </c>
@@ -804,8 +858,11 @@
       <c r="G18" s="1">
         <v>4.56421160754463</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="1">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>259.2</v>
       </c>
@@ -827,8 +884,11 @@
       <c r="G19" s="1">
         <v>4.8563937036336702</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="1">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>534.29999999999995</v>
       </c>
@@ -850,8 +910,11 @@
       <c r="G20" s="1">
         <v>4.8869826183785499</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>412.2</v>
       </c>
@@ -873,8 +936,11 @@
       <c r="G21" s="1">
         <v>4.2797045917650598</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>369</v>
       </c>
@@ -896,8 +962,11 @@
       <c r="G22" s="1">
         <v>4.12724886060772</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>598.20000000000005</v>
       </c>
@@ -919,8 +988,11 @@
       <c r="G23" s="1">
         <v>4.3798355455629503</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="1">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>410.6</v>
       </c>
@@ -942,8 +1014,11 @@
       <c r="G24" s="1">
         <v>4.3539453414395899</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>170.3</v>
       </c>
@@ -965,8 +1040,11 @@
       <c r="G25" s="1">
         <v>4.8214805313429698</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>155.30000000000001</v>
       </c>
@@ -988,8 +1066,11 @@
       <c r="G26" s="1">
         <v>5.0630218186397897</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="1">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>484.9</v>
       </c>
@@ -1011,8 +1092,11 @@
       <c r="G27" s="1">
         <v>4.7803457934734599</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="1">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>486.8</v>
       </c>
@@ -1034,8 +1118,11 @@
       <c r="G28" s="1">
         <v>4.8826182523127297</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="1">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>486.1</v>
       </c>
@@ -1057,8 +1144,11 @@
       <c r="G29" s="1">
         <v>4.6831569442952299</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>80.8</v>
       </c>
@@ -1080,8 +1170,11 @@
       <c r="G30" s="1">
         <v>4.97614080527305</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="1">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>761.1</v>
       </c>
@@ -1103,8 +1196,11 @@
       <c r="G31" s="1">
         <v>4.9080696128976902</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="1">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>593.79999999999995</v>
       </c>
@@ -1126,8 +1222,11 @@
       <c r="G32" s="1">
         <v>4.6243992551929596</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="1">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>64.400000000000006</v>
       </c>
@@ -1149,8 +1248,11 @@
       <c r="G33" s="1">
         <v>4.7232935402646499</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="1">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>77.8</v>
       </c>
@@ -1172,8 +1274,11 @@
       <c r="G34" s="1">
         <v>5.0174722876271503</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="1">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>396.3</v>
       </c>
@@ -1195,8 +1300,11 @@
       <c r="G35" s="1">
         <v>4.4806576132413696</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>517.29999999999995</v>
       </c>
@@ -1218,8 +1326,11 @@
       <c r="G36" s="1">
         <v>4.9850067202495296</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="1">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>208.2</v>
       </c>
@@ -1241,8 +1352,11 @@
       <c r="G37" s="1">
         <v>4.6282856866420996</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="1">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>383.3</v>
       </c>
@@ -1264,8 +1378,11 @@
       <c r="G38" s="1">
         <v>4.2968688143995299</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>968.2</v>
       </c>
@@ -1287,8 +1404,11 @@
       <c r="G39" s="1">
         <v>4.8125651745206097</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>950.3</v>
       </c>
@@ -1310,8 +1430,11 @@
       <c r="G40" s="1">
         <v>4.2990267855400601</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>23.7</v>
       </c>
@@ -1333,8 +1456,11 @@
       <c r="G41" s="1">
         <v>4.7068033049856597</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>344</v>
       </c>
@@ -1356,8 +1482,11 @@
       <c r="G42" s="1">
         <v>4.2889355052729101</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41.9</v>
       </c>
@@ -1379,8 +1508,11 @@
       <c r="G43" s="1">
         <v>4.9734291946691203</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>563.79999999999995</v>
       </c>
@@ -1402,8 +1534,11 @@
       <c r="G44" s="1">
         <v>4.4121723605492704</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="1">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>736</v>
       </c>
@@ -1425,8 +1560,11 @@
       <c r="G45" s="1">
         <v>4.4303713831607396</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="1">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>360.4</v>
       </c>
@@ -1448,8 +1586,11 @@
       <c r="G46" s="1">
         <v>4.31926612319036</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>404</v>
       </c>
@@ -1471,8 +1612,11 @@
       <c r="G47" s="1">
         <v>4.5971325132656702</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="1">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>973.8</v>
       </c>
@@ -1494,8 +1638,11 @@
       <c r="G48" s="1">
         <v>4.0776109942181398</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>850.3</v>
       </c>
@@ -1517,8 +1664,11 @@
       <c r="G49" s="1">
         <v>5.0249127177064796</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="1">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>138.1</v>
       </c>
@@ -1540,8 +1690,11 @@
       <c r="G50" s="1">
         <v>4.7266635395739502</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="1">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>826.6</v>
       </c>
@@ -1563,8 +1716,11 @@
       <c r="G51" s="1">
         <v>5.0196584473839696</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>741.4</v>
       </c>
@@ -1586,8 +1742,11 @@
       <c r="G52" s="1">
         <v>5.02760125092263</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="1">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>444.3</v>
       </c>
@@ -1609,8 +1768,11 @@
       <c r="G53" s="1">
         <v>5.11871861802741</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>445.3</v>
       </c>
@@ -1632,8 +1794,11 @@
       <c r="G54" s="1">
         <v>4.5838839269251803</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="1">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>694.7</v>
       </c>
@@ -1655,8 +1820,11 @@
       <c r="G55" s="1">
         <v>4.1976987651250797</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>299.2</v>
       </c>
@@ -1678,8 +1846,11 @@
       <c r="G56" s="1">
         <v>5.0393707930209599</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="1">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>714</v>
       </c>
@@ -1701,8 +1872,11 @@
       <c r="G57" s="1">
         <v>4.6617577596230397</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="1">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>415.6</v>
       </c>
@@ -1724,8 +1898,11 @@
       <c r="G58" s="1">
         <v>4.4834086160194602</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="1">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>655.9</v>
       </c>
@@ -1747,8 +1924,11 @@
       <c r="G59" s="1">
         <v>4.8805984721790798</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="1">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>49.5</v>
       </c>
@@ -1770,8 +1950,11 @@
       <c r="G60" s="1">
         <v>4.5494052437016599</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>656.6</v>
       </c>
@@ -1793,8 +1976,11 @@
       <c r="G61" s="1">
         <v>4.6062130011851199</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="1">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>878.1</v>
       </c>
@@ -1816,8 +2002,11 @@
       <c r="G62" s="1">
         <v>4.7125200794993498</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>848.5</v>
       </c>
@@ -1839,8 +2028,11 @@
       <c r="G63" s="1">
         <v>4.2454353951680703</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="1">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>189.4</v>
       </c>
@@ -1862,8 +2054,11 @@
       <c r="G64" s="1">
         <v>5.0132999152474103</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>132</v>
       </c>
@@ -1885,8 +2080,11 @@
       <c r="G65" s="1">
         <v>4.9304109801156804</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="1">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>529.9</v>
       </c>
@@ -1908,8 +2106,11 @@
       <c r="G66" s="1">
         <v>4.7631004131943797</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>698.6</v>
       </c>
@@ -1931,8 +2132,11 @@
       <c r="G67" s="1">
         <v>4.6403232856912799</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="1">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>46.3</v>
       </c>
@@ -1954,8 +2158,11 @@
       <c r="G68" s="1">
         <v>4.4344669068606404</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="1">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>429</v>
       </c>
@@ -1977,8 +2184,11 @@
       <c r="G69" s="1">
         <v>4.5819170965447604</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="1">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>80.900000000000006</v>
       </c>
@@ -2000,8 +2210,11 @@
       <c r="G70" s="1">
         <v>4.6105585163449101</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="1">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>642.5</v>
       </c>
@@ -2023,8 +2236,11 @@
       <c r="G71" s="1">
         <v>4.97862828962361</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="1">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>724.2</v>
       </c>
@@ -2046,8 +2262,11 @@
       <c r="G72" s="1">
         <v>5.0738474212685096</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="1">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>731.9</v>
       </c>
@@ -2069,8 +2288,11 @@
       <c r="G73" s="1">
         <v>4.9485802702697104</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>62</v>
       </c>
@@ -2092,8 +2314,11 @@
       <c r="G74" s="1">
         <v>4.3411804050903502</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>439</v>
       </c>
@@ -2115,8 +2340,11 @@
       <c r="G75" s="1">
         <v>4.9039500515927097</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="1">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>543.6</v>
       </c>
@@ -2138,8 +2366,11 @@
       <c r="G76" s="1">
         <v>4.50243034896081</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>376.8</v>
       </c>
@@ -2161,8 +2392,11 @@
       <c r="G77" s="1">
         <v>5.2032862664778996</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" s="1">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>27.7</v>
       </c>
@@ -2184,8 +2418,11 @@
       <c r="G78" s="1">
         <v>4.4824989886349602</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" s="1">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>903.4</v>
       </c>
@@ -2207,8 +2444,11 @@
       <c r="G79" s="1">
         <v>4.2469675625646799</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>349.8</v>
       </c>
@@ -2230,8 +2470,11 @@
       <c r="G80" s="1">
         <v>4.6171663014021203</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="1">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>560</v>
       </c>
@@ -2253,8 +2496,11 @@
       <c r="G81" s="1">
         <v>4.71961145291304</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="1">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>470.3</v>
       </c>
@@ -2276,8 +2522,11 @@
       <c r="G82" s="1">
         <v>4.6954019015226498</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>322.89999999999998</v>
       </c>
@@ -2299,8 +2548,11 @@
       <c r="G83" s="1">
         <v>4.3043963268290701</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" s="1">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>637.4</v>
       </c>
@@ -2322,8 +2574,11 @@
       <c r="G84" s="1">
         <v>4.2360120614184398</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>804.1</v>
       </c>
@@ -2345,8 +2600,11 @@
       <c r="G85" s="1">
         <v>4.7963212002088902</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>990.6</v>
       </c>
@@ -2368,8 +2626,11 @@
       <c r="G86" s="1">
         <v>4.9866264507342404</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>604.20000000000005</v>
       </c>
@@ -2391,8 +2652,11 @@
       <c r="G87" s="1">
         <v>4.7292154581885297</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="1">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>460.3</v>
       </c>
@@ -2414,8 +2678,11 @@
       <c r="G88" s="1">
         <v>4.94239984757826</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" s="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>3.6</v>
       </c>
@@ -2437,8 +2704,11 @@
       <c r="G89" s="1">
         <v>4.2818584531186401</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>570.29999999999995</v>
       </c>
@@ -2460,8 +2730,11 @@
       <c r="G90" s="1">
         <v>4.3272908289357899</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" s="1">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>903.6</v>
       </c>
@@ -2483,8 +2756,11 @@
       <c r="G91" s="1">
         <v>4.3939086034694199</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>500.2</v>
       </c>
@@ -2506,8 +2782,11 @@
       <c r="G92" s="1">
         <v>4.7828114240972202</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>162.69999999999999</v>
       </c>
@@ -2529,8 +2808,11 @@
       <c r="G93" s="1">
         <v>5.01934270329639</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" s="1">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>968.5</v>
       </c>
@@ -2552,8 +2834,11 @@
       <c r="G94" s="1">
         <v>4.2201906419393698</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>155.30000000000001</v>
       </c>
@@ -2575,8 +2860,11 @@
       <c r="G95" s="1">
         <v>4.94908991831627</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>644.5</v>
       </c>
@@ -2598,8 +2886,11 @@
       <c r="G96" s="1">
         <v>4.5515891817918002</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" s="1">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>950.2</v>
       </c>
@@ -2621,8 +2912,11 @@
       <c r="G97" s="1">
         <v>4.5389445747917296</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" s="1">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>967.2</v>
       </c>
@@ -2644,8 +2938,11 @@
       <c r="G98" s="1">
         <v>4.9370951657521696</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>157.6</v>
       </c>
@@ -2667,8 +2964,11 @@
       <c r="G99" s="1">
         <v>4.4203673184845096</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="1">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>430.2</v>
       </c>
@@ -2690,8 +2990,11 @@
       <c r="G100" s="1">
         <v>4.9818680093401104</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="1">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>292.7</v>
       </c>
@@ -2713,8 +3016,11 @@
       <c r="G101" s="1">
         <v>4.4712432251524401</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" s="1">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>287.2</v>
       </c>
@@ -2736,8 +3042,11 @@
       <c r="G102" s="1">
         <v>4.5802569852075798</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>626.4</v>
       </c>
@@ -2759,8 +3068,11 @@
       <c r="G103" s="1">
         <v>4.7003712278190903</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>426.1</v>
       </c>
@@ -2782,8 +3094,11 @@
       <c r="G104" s="1">
         <v>5.0258879192447496</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" s="1">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>636.1</v>
       </c>
@@ -2805,8 +3120,11 @@
       <c r="G105" s="1">
         <v>5.08678809376143</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" s="1">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>203.9</v>
       </c>
@@ -2828,8 +3146,11 @@
       <c r="G106" s="1">
         <v>5.0530769433304803</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" s="1">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>743.2</v>
       </c>
@@ -2851,8 +3172,11 @@
       <c r="G107" s="1">
         <v>4.4230675626446603</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>551.29999999999995</v>
       </c>
@@ -2874,8 +3198,11 @@
       <c r="G108" s="1">
         <v>5.0212374165724496</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" s="1">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>127.2</v>
       </c>
@@ -2897,8 +3224,11 @@
       <c r="G109" s="1">
         <v>4.3129837116268197</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>445.2</v>
       </c>
@@ -2920,8 +3250,11 @@
       <c r="G110" s="1">
         <v>4.72801942890053</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>803.2</v>
       </c>
@@ -2943,8 +3276,11 @@
       <c r="G111" s="1">
         <v>4.83721537647956</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" s="1">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>38</v>
       </c>
@@ -2966,8 +3302,11 @@
       <c r="G112" s="1">
         <v>4.3509901042533299</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>991.9</v>
       </c>
@@ -2989,8 +3328,11 @@
       <c r="G113" s="1">
         <v>5.0009590814413096</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" s="1">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>15.9</v>
       </c>
@@ -3012,8 +3354,11 @@
       <c r="G114" s="1">
         <v>4.2678499631967597</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>431.1</v>
       </c>
@@ -3035,8 +3380,11 @@
       <c r="G115" s="1">
         <v>4.3362639277577504</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" s="1">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>226.6</v>
       </c>
@@ -3058,8 +3406,11 @@
       <c r="G116" s="1">
         <v>5.0311760482755101</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>7.7</v>
       </c>
@@ -3081,8 +3432,11 @@
       <c r="G117" s="1">
         <v>4.9353192747518504</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>145.9</v>
       </c>
@@ -3104,8 +3458,11 @@
       <c r="G118" s="1">
         <v>4.7161940348518199</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>384.2</v>
       </c>
@@ -3127,8 +3484,11 @@
       <c r="G119" s="1">
         <v>4.5471242090086603</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119" s="1">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>545</v>
       </c>
@@ -3150,8 +3510,11 @@
       <c r="G120" s="1">
         <v>4.8455046401567596</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>94.6</v>
       </c>
@@ -3173,8 +3536,11 @@
       <c r="G121" s="1">
         <v>4.2605109154796601</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>386.8</v>
       </c>
@@ -3196,8 +3562,11 @@
       <c r="G122" s="1">
         <v>4.9055417530296399</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>922.2</v>
       </c>
@@ -3219,8 +3588,11 @@
       <c r="G123" s="1">
         <v>4.8521373106362997</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123" s="1">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>249.4</v>
       </c>
@@ -3242,8 +3614,11 @@
       <c r="G124" s="1">
         <v>4.5988723810039396</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124" s="1">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>228.6</v>
       </c>
@@ -3265,8 +3640,11 @@
       <c r="G125" s="1">
         <v>4.8988335193055699</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125" s="1">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>828.3</v>
       </c>
@@ -3288,8 +3666,11 @@
       <c r="G126" s="1">
         <v>4.5598396569665596</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>67.2</v>
       </c>
@@ -3311,8 +3692,11 @@
       <c r="G127" s="1">
         <v>4.7467117352180299</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127" s="1">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>778.9</v>
       </c>
@@ -3334,8 +3718,11 @@
       <c r="G128" s="1">
         <v>4.7538932737371198</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>193.7</v>
       </c>
@@ -3357,8 +3744,11 @@
       <c r="G129" s="1">
         <v>5.0579691692031501</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129" s="1">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>83.8</v>
       </c>
@@ -3380,8 +3770,11 @@
       <c r="G130" s="1">
         <v>4.7744274708681997</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130" s="1">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>271.89999999999998</v>
       </c>
@@ -3403,8 +3796,11 @@
       <c r="G131" s="1">
         <v>4.9115793240360404</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131" s="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>826.5</v>
       </c>
@@ -3426,8 +3822,11 @@
       <c r="G132" s="1">
         <v>4.6910136693587896</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>962.7</v>
       </c>
@@ -3449,8 +3848,11 @@
       <c r="G133" s="1">
         <v>4.9879696268879199</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133" s="1">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>768.1</v>
       </c>
@@ -3472,8 +3874,11 @@
       <c r="G134" s="1">
         <v>4.9070814474438604</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134" s="1">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>321.10000000000002</v>
       </c>
@@ -3495,8 +3900,11 @@
       <c r="G135" s="1">
         <v>4.5997028726540803</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>65.3</v>
       </c>
@@ -3518,8 +3926,11 @@
       <c r="G136" s="1">
         <v>4.5802750686683398</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>251.6</v>
       </c>
@@ -3541,8 +3952,11 @@
       <c r="G137" s="1">
         <v>4.5265498589286199</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137" s="1">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>739.9</v>
       </c>
@@ -3564,8 +3978,11 @@
       <c r="G138" s="1">
         <v>4.8765698666602599</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138" s="1">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>579.70000000000005</v>
       </c>
@@ -3587,8 +4004,11 @@
       <c r="G139" s="1">
         <v>4.9210798808399101</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139" s="1">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>382.7</v>
       </c>
@@ -3610,8 +4030,11 @@
       <c r="G140" s="1">
         <v>4.7353114980442603</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H140" s="1">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>377</v>
       </c>
@@ -3633,8 +4056,11 @@
       <c r="G141" s="1">
         <v>4.4083304975998603</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H141" s="1">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>74.400000000000006</v>
       </c>
@@ -3656,8 +4082,11 @@
       <c r="G142" s="1">
         <v>4.6678277982169396</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H142" s="1">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>561.4</v>
       </c>
@@ -3679,8 +4108,11 @@
       <c r="G143" s="1">
         <v>4.3792394235539502</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H143" s="1">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>838</v>
       </c>
@@ -3702,8 +4134,11 @@
       <c r="G144" s="1">
         <v>4.8949554376990996</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H144" s="1">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>844.1</v>
       </c>
@@ -3725,8 +4160,11 @@
       <c r="G145" s="1">
         <v>4.9359579639830002</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H145" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>723.2</v>
       </c>
@@ -3748,8 +4186,11 @@
       <c r="G146" s="1">
         <v>4.28656452439491</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H146" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>690.1</v>
       </c>
@@ -3771,8 +4212,11 @@
       <c r="G147" s="1">
         <v>4.9807284130563403</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H147" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>485.4</v>
       </c>
@@ -3794,8 +4238,11 @@
       <c r="G148" s="1">
         <v>4.7765092166163896</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H148" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>320.7</v>
       </c>
@@ -3817,8 +4264,11 @@
       <c r="G149" s="1">
         <v>4.21058090904969</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H149" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>153.19999999999999</v>
       </c>
@@ -3840,8 +4290,11 @@
       <c r="G150" s="1">
         <v>4.3075895907752999</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H150" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>818.4</v>
       </c>
@@ -3863,8 +4316,11 @@
       <c r="G151" s="1">
         <v>4.1543593415234197</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H151" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>976.7</v>
       </c>
@@ -3886,8 +4342,11 @@
       <c r="G152" s="1">
         <v>4.8260363177443599</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H152" s="1">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>27.6</v>
       </c>
@@ -3909,8 +4368,11 @@
       <c r="G153" s="1">
         <v>4.7694463149019501</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H153" s="1">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>789.5</v>
       </c>
@@ -3932,8 +4394,11 @@
       <c r="G154" s="1">
         <v>5.1595147562978498</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H154" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>350</v>
       </c>
@@ -3955,8 +4420,11 @@
       <c r="G155" s="1">
         <v>4.9674522033100699</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H155" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>628.6</v>
       </c>
@@ -3978,8 +4446,11 @@
       <c r="G156" s="1">
         <v>4.45709744344264</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H156" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>521.20000000000005</v>
       </c>
@@ -4001,8 +4472,11 @@
       <c r="G157" s="1">
         <v>4.8426670510136898</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H157" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>686.3</v>
       </c>
@@ -4024,8 +4498,11 @@
       <c r="G158" s="1">
         <v>4.7022195997779903</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H158" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>949.9</v>
       </c>
@@ -4047,8 +4524,11 @@
       <c r="G159" s="1">
         <v>4.5154359675931497</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H159" s="1">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>62</v>
       </c>
@@ -4070,8 +4550,11 @@
       <c r="G160" s="1">
         <v>4.7477575200666804</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H160" s="1">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>161.30000000000001</v>
       </c>
@@ -4093,8 +4576,11 @@
       <c r="G161" s="1">
         <v>4.8225260942216099</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H161" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>391.8</v>
       </c>
@@ -4116,8 +4602,11 @@
       <c r="G162" s="1">
         <v>4.69627124633897</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H162" s="1">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>982.3</v>
       </c>
@@ -4139,8 +4628,11 @@
       <c r="G163" s="1">
         <v>4.50284428339189</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H163" s="1">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>581.1</v>
       </c>
@@ -4162,8 +4654,11 @@
       <c r="G164" s="1">
         <v>4.2759475187763902</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H164" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>733.5</v>
       </c>
@@ -4185,8 +4680,11 @@
       <c r="G165" s="1">
         <v>4.7182033154964698</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H165" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>214.2</v>
       </c>
@@ -4208,8 +4706,11 @@
       <c r="G166" s="1">
         <v>4.0863849014871496</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H166" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>323.89999999999998</v>
       </c>
@@ -4231,8 +4732,11 @@
       <c r="G167" s="1">
         <v>4.5664796156166902</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H167" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>487.5</v>
       </c>
@@ -4254,8 +4758,11 @@
       <c r="G168" s="1">
         <v>4.95660528721295</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H168" s="1">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>598.5</v>
       </c>
@@ -4277,8 +4784,11 @@
       <c r="G169" s="1">
         <v>5.03365910598197</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H169" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>20.8</v>
       </c>
@@ -4300,8 +4810,11 @@
       <c r="G170" s="1">
         <v>4.85915231219108</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H170" s="1">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>675.6</v>
       </c>
@@ -4323,8 +4836,11 @@
       <c r="G171" s="1">
         <v>4.4379068900495504</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H171" s="1">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>403</v>
       </c>
@@ -4346,8 +4862,11 @@
       <c r="G172" s="1">
         <v>4.62452875386961</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H172" s="1">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>771.5</v>
       </c>
@@ -4369,8 +4888,11 @@
       <c r="G173" s="1">
         <v>4.5755789647297203</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H173" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>252.2</v>
       </c>
@@ -4392,8 +4914,11 @@
       <c r="G174" s="1">
         <v>4.4778090372119301</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H174" s="1">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>556.29999999999995</v>
       </c>
@@ -4415,8 +4940,11 @@
       <c r="G175" s="1">
         <v>4.2772187935647503</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H175" s="1">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>425.2</v>
       </c>
@@ -4438,8 +4966,11 @@
       <c r="G176" s="1">
         <v>4.4127328150932303</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H176" s="1">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>272.60000000000002</v>
       </c>
@@ -4461,8 +4992,11 @@
       <c r="G177" s="1">
         <v>4.4082594640796096</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H177" s="1">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>794.8</v>
       </c>
@@ -4484,8 +5018,11 @@
       <c r="G178" s="1">
         <v>4.8031225648479197</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H178" s="1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>323.10000000000002</v>
       </c>
@@ -4507,8 +5044,11 @@
       <c r="G179" s="1">
         <v>4.9326712464521298</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H179" s="1">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>9.5</v>
       </c>
@@ -4530,8 +5070,11 @@
       <c r="G180" s="1">
         <v>4.3891216437920102</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H180" s="1">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>794.5</v>
       </c>
@@ -4553,8 +5096,11 @@
       <c r="G181" s="1">
         <v>4.5537338988860601</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H181" s="1">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>995</v>
       </c>
@@ -4576,8 +5122,11 @@
       <c r="G182" s="1">
         <v>4.7929890451970696</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H182" s="1">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>953.7</v>
       </c>
@@ -4599,8 +5148,11 @@
       <c r="G183" s="1">
         <v>4.7557508522807597</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H183" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>850.7</v>
       </c>
@@ -4622,8 +5174,11 @@
       <c r="G184" s="1">
         <v>4.8109951749037503</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H184" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>239.1</v>
       </c>
@@ -4645,8 +5200,11 @@
       <c r="G185" s="1">
         <v>5.1906313328741698</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H185" s="1">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>686.9</v>
       </c>
@@ -4668,8 +5226,11 @@
       <c r="G186" s="1">
         <v>4.1202800200466996</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H186" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>379.8</v>
       </c>
@@ -4691,8 +5252,11 @@
       <c r="G187" s="1">
         <v>5.1039756889718397</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H187" s="1">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>452.3</v>
       </c>
@@ -4714,8 +5278,11 @@
       <c r="G188" s="1">
         <v>4.5121005335441797</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H188" s="1">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>538.20000000000005</v>
       </c>
@@ -4737,8 +5304,11 @@
       <c r="G189" s="1">
         <v>4.4724232180062504</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H189" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>621</v>
       </c>
@@ -4760,8 +5330,11 @@
       <c r="G190" s="1">
         <v>4.8509775403453101</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H190" s="1">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>472.3</v>
       </c>
@@ -4783,8 +5356,11 @@
       <c r="G191" s="1">
         <v>4.9770104696873396</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H191" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>16.399999999999999</v>
       </c>
@@ -4806,8 +5382,11 @@
       <c r="G192" s="1">
         <v>4.2282745009264202</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H192" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>899</v>
       </c>
@@ -4829,8 +5408,11 @@
       <c r="G193" s="1">
         <v>4.6137124587599203</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H193" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>453.8</v>
       </c>
@@ -4852,8 +5434,11 @@
       <c r="G194" s="1">
         <v>5.0268338308415199</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H194" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>471.8</v>
       </c>
@@ -4875,8 +5460,11 @@
       <c r="G195" s="1">
         <v>4.9314965550341796</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H195" s="1">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>4.3</v>
       </c>
@@ -4898,8 +5486,11 @@
       <c r="G196" s="1">
         <v>5.0689720629892703</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H196" s="1">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>261.7</v>
       </c>
@@ -4921,8 +5512,11 @@
       <c r="G197" s="1">
         <v>5.1368145260199203</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H197" s="1">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>484.5</v>
       </c>
@@ -4944,8 +5538,11 @@
       <c r="G198" s="1">
         <v>4.7263179588305997</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H198" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>31.1</v>
       </c>
@@ -4967,8 +5564,11 @@
       <c r="G199" s="1">
         <v>4.73357100361366</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H199" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>234.4</v>
       </c>
@@ -4990,8 +5590,11 @@
       <c r="G200" s="1">
         <v>4.6541544852819596</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H200" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>386.8</v>
       </c>
@@ -5013,8 +5616,11 @@
       <c r="G201" s="1">
         <v>4.7492291716054096</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H201" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>434.1</v>
       </c>
@@ -5036,8 +5642,11 @@
       <c r="G202" s="1">
         <v>5.0808794645566104</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H202" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>223.8</v>
       </c>
@@ -5059,8 +5668,11 @@
       <c r="G203" s="1">
         <v>5.2215483329997099</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H203" s="1">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>247.4</v>
       </c>
@@ -5082,8 +5694,11 @@
       <c r="G204" s="1">
         <v>4.2499212856325403</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H204" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>951.7</v>
       </c>
@@ -5105,8 +5720,11 @@
       <c r="G205" s="1">
         <v>4.9716681795186499</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H205" s="1">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>34.4</v>
       </c>
@@ -5128,8 +5746,11 @@
       <c r="G206" s="1">
         <v>4.4238857011415096</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H206" s="1">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>986.4</v>
       </c>
@@ -5151,8 +5772,11 @@
       <c r="G207" s="1">
         <v>4.3593858658993199</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H207" s="1">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>679.6</v>
       </c>
@@ -5174,8 +5798,11 @@
       <c r="G208" s="1">
         <v>4.5548163655681</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H208" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207.7</v>
       </c>
@@ -5197,8 +5824,11 @@
       <c r="G209" s="1">
         <v>4.9435121345277304</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H209" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>472.2</v>
       </c>
@@ -5220,8 +5850,11 @@
       <c r="G210" s="1">
         <v>4.6846933792922298</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H210" s="1">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>238.9</v>
       </c>
@@ -5243,8 +5876,11 @@
       <c r="G211" s="1">
         <v>4.9634865470141403</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H211" s="1">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>826.5</v>
       </c>
@@ -5266,8 +5902,11 @@
       <c r="G212" s="1">
         <v>4.8913668591794401</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H212" s="1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>115.3</v>
       </c>
@@ -5289,8 +5928,11 @@
       <c r="G213" s="1">
         <v>4.6344270093285802</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H213" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>41.9</v>
       </c>
@@ -5312,8 +5954,11 @@
       <c r="G214" s="1">
         <v>4.77342186490882</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H214" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>51.4</v>
       </c>
@@ -5335,8 +5980,11 @@
       <c r="G215" s="1">
         <v>4.6261038959655698</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H215" s="1">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>311.10000000000002</v>
       </c>
@@ -5358,8 +6006,11 @@
       <c r="G216" s="1">
         <v>4.9007343004227097</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H216" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>523</v>
       </c>
@@ -5381,8 +6032,11 @@
       <c r="G217" s="1">
         <v>5.00005544948917</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H217" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>305.8</v>
       </c>
@@ -5404,8 +6058,11 @@
       <c r="G218" s="1">
         <v>4.7911463642611096</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H218" s="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>212.5</v>
       </c>
@@ -5427,8 +6084,11 @@
       <c r="G219" s="1">
         <v>4.8571515616238603</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H219" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>698</v>
       </c>
@@ -5450,8 +6110,11 @@
       <c r="G220" s="1">
         <v>4.4079962482051496</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H220" s="1">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>294.5</v>
       </c>
@@ -5473,8 +6136,11 @@
       <c r="G221" s="1">
         <v>4.3145704622012104</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H221" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>842.1</v>
       </c>
@@ -5496,8 +6162,11 @@
       <c r="G222" s="1">
         <v>4.8136787531054903</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H222" s="1">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>339.5</v>
       </c>
@@ -5519,8 +6188,11 @@
       <c r="G223" s="1">
         <v>4.1202495504530603</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H223" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>407.6</v>
       </c>
@@ -5542,8 +6214,11 @@
       <c r="G224" s="1">
         <v>4.5027679195629204</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H224" s="1">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>811.1</v>
       </c>
@@ -5565,8 +6240,11 @@
       <c r="G225" s="1">
         <v>4.5543863069814803</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H225" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>624.9</v>
       </c>
@@ -5588,8 +6266,11 @@
       <c r="G226" s="1">
         <v>4.7704502955646202</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H226" s="1">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>795.3</v>
       </c>
@@ -5611,8 +6292,11 @@
       <c r="G227" s="1">
         <v>4.6976498350598304</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H227" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>859.5</v>
       </c>
@@ -5634,8 +6318,11 @@
       <c r="G228" s="1">
         <v>4.3062439139105502</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H228" s="1">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>70.5</v>
       </c>
@@ -5657,8 +6344,11 @@
       <c r="G229" s="1">
         <v>4.4529322090725501</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H229" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>602.5</v>
       </c>
@@ -5680,8 +6370,11 @@
       <c r="G230" s="1">
         <v>4.4454111620913599</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H230" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>561.29999999999995</v>
       </c>
@@ -5703,8 +6396,11 @@
       <c r="G231" s="1">
         <v>4.4355889840735898</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H231" s="1">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>327</v>
       </c>
@@ -5726,8 +6422,11 @@
       <c r="G232" s="1">
         <v>5.2043335429133801</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H232" s="1">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>101.5</v>
       </c>
@@ -5749,8 +6448,11 @@
       <c r="G233" s="1">
         <v>4.4469615324153704</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H233" s="1">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>9.3000000000000007</v>
       </c>
@@ -5772,8 +6474,11 @@
       <c r="G234" s="1">
         <v>4.9321706761201698</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H234" s="1">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>852.9</v>
       </c>
@@ -5795,8 +6500,11 @@
       <c r="G235" s="1">
         <v>4.8444366924617599</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H235" s="1">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>245.7</v>
       </c>
@@ -5818,8 +6526,11 @@
       <c r="G236" s="1">
         <v>4.36923695249296</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H236" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>447.3</v>
       </c>
@@ -5841,8 +6552,11 @@
       <c r="G237" s="1">
         <v>4.7135074437139197</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H237" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>908.2</v>
       </c>
@@ -5864,8 +6578,11 @@
       <c r="G238" s="1">
         <v>4.8202694430271897</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H238" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>286</v>
       </c>
@@ -5887,8 +6604,11 @@
       <c r="G239" s="1">
         <v>4.5376231533364004</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H239" s="1">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>996.3</v>
       </c>
@@ -5910,8 +6630,11 @@
       <c r="G240" s="1">
         <v>4.8120347309492697</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H240" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>730.3</v>
       </c>
@@ -5933,8 +6656,11 @@
       <c r="G241" s="1">
         <v>4.2692267444267404</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H241" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>910.5</v>
       </c>
@@ -5956,8 +6682,11 @@
       <c r="G242" s="1">
         <v>4.6211077561126999</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H242" s="1">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>500.5</v>
       </c>
@@ -5979,8 +6708,11 @@
       <c r="G243" s="1">
         <v>4.64671316798837</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H243" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>43</v>
       </c>
@@ -6002,8 +6734,11 @@
       <c r="G244" s="1">
         <v>4.5678621016892098</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H244" s="1">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>964.5</v>
       </c>
@@ -6025,8 +6760,11 @@
       <c r="G245" s="1">
         <v>4.8681838439918002</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H245" s="1">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>251.6</v>
       </c>
@@ -6048,8 +6786,11 @@
       <c r="G246" s="1">
         <v>4.1750800110171999</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H246" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>547</v>
       </c>
@@ -6071,8 +6812,11 @@
       <c r="G247" s="1">
         <v>4.1894602357406301</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H247" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>873.6</v>
       </c>
@@ -6094,8 +6838,11 @@
       <c r="G248" s="1">
         <v>4.3821799819257299</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H248" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>872.9</v>
       </c>
@@ -6117,8 +6864,11 @@
       <c r="G249" s="1">
         <v>4.6453040279342996</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H249" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>940.1</v>
       </c>
@@ -6140,8 +6890,11 @@
       <c r="G250" s="1">
         <v>4.8844782900422903</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H250" s="1">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>49.5</v>
       </c>
@@ -6163,8 +6916,11 @@
       <c r="G251" s="1">
         <v>4.8374705587448199</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H251" s="1">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>530.70000000000005</v>
       </c>
@@ -6186,8 +6942,11 @@
       <c r="G252" s="1">
         <v>4.9434134082081904</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H252" s="1">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>738.7</v>
       </c>
@@ -6209,8 +6968,11 @@
       <c r="G253" s="1">
         <v>4.83775804486302</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H253" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>20.6</v>
       </c>
@@ -6232,8 +6994,11 @@
       <c r="G254" s="1">
         <v>4.49809034245677</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H254" s="1">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>43.3</v>
       </c>
@@ -6255,8 +7020,11 @@
       <c r="G255" s="1">
         <v>4.7421634754114299</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H255" s="1">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>970.5</v>
       </c>
@@ -6278,8 +7046,11 @@
       <c r="G256" s="1">
         <v>4.6684476969138</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H256" s="1">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>629.70000000000005</v>
       </c>
@@ -6301,8 +7072,11 @@
       <c r="G257" s="1">
         <v>4.2128940938828201</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H257" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>674.5</v>
       </c>
@@ -6324,8 +7098,11 @@
       <c r="G258" s="1">
         <v>5.0236770000221203</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H258" s="1">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>740.7</v>
       </c>
@@ -6347,8 +7124,11 @@
       <c r="G259" s="1">
         <v>4.8506480545363599</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H259" s="1">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>254.6</v>
       </c>
@@ -6370,8 +7150,11 @@
       <c r="G260" s="1">
         <v>5.0355463412725401</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H260" s="1">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>54</v>
       </c>
@@ -6393,8 +7176,11 @@
       <c r="G261" s="1">
         <v>4.2960223947353899</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H261" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>197.5</v>
       </c>
@@ -6416,8 +7202,11 @@
       <c r="G262" s="1">
         <v>4.7241353183251897</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H262" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>64</v>
       </c>
@@ -6439,8 +7228,11 @@
       <c r="G263" s="1">
         <v>4.9932791362401501</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H263" s="1">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>378</v>
       </c>
@@ -6462,8 +7254,11 @@
       <c r="G264" s="1">
         <v>4.46714070365908</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H264" s="1">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>648.70000000000005</v>
       </c>
@@ -6485,8 +7280,11 @@
       <c r="G265" s="1">
         <v>5.0497822892847202</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H265" s="1">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>107.2</v>
       </c>
@@ -6508,8 +7306,11 @@
       <c r="G266" s="1">
         <v>4.5759732033709799</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H266" s="1">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>53.8</v>
       </c>
@@ -6531,8 +7332,11 @@
       <c r="G267" s="1">
         <v>4.3692150348270804</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H267" s="1">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>911.4</v>
       </c>
@@ -6554,8 +7358,11 @@
       <c r="G268" s="1">
         <v>4.8499819930477504</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H268" s="1">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>713.6</v>
       </c>
@@ -6577,8 +7384,11 @@
       <c r="G269" s="1">
         <v>4.4776127099118996</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H269" s="1">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>48.2</v>
       </c>
@@ -6600,8 +7410,11 @@
       <c r="G270" s="1">
         <v>4.4176343038557198</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H270" s="1">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>475.6</v>
       </c>
@@ -6623,8 +7436,11 @@
       <c r="G271" s="1">
         <v>4.6379924371221</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H271" s="1">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>718</v>
       </c>
@@ -6646,8 +7462,11 @@
       <c r="G272" s="1">
         <v>4.9259935160487798</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H272" s="1">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>370</v>
       </c>
@@ -6669,8 +7488,11 @@
       <c r="G273" s="1">
         <v>4.5675075464086898</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H273" s="1">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>22</v>
       </c>
@@ -6692,8 +7514,11 @@
       <c r="G274" s="1">
         <v>4.6215624071423296</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H274" s="1">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>251.5</v>
       </c>
@@ -6715,8 +7540,11 @@
       <c r="G275" s="1">
         <v>4.6690326493044196</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H275" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>724.5</v>
       </c>
@@ -6738,8 +7566,11 @@
       <c r="G276" s="1">
         <v>5.1497675180014797</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H276" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>573.70000000000005</v>
       </c>
@@ -6761,8 +7592,11 @@
       <c r="G277" s="1">
         <v>4.4632588204884298</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H277" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>946.9</v>
       </c>
@@ -6784,8 +7618,11 @@
       <c r="G278" s="1">
         <v>5.0479268687210199</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H278" s="1">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>508.5</v>
       </c>
@@ -6807,8 +7644,11 @@
       <c r="G279" s="1">
         <v>4.5083227936924901</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H279" s="1">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>398</v>
       </c>
@@ -6830,8 +7670,11 @@
       <c r="G280" s="1">
         <v>4.2024026113477699</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H280" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>967</v>
       </c>
@@ -6853,8 +7696,11 @@
       <c r="G281" s="1">
         <v>4.3424776412702597</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H281" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>435.5</v>
       </c>
@@ -6876,8 +7722,11 @@
       <c r="G282" s="1">
         <v>4.8832692017733201</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H282" s="1">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>961.6</v>
       </c>
@@ -6899,8 +7748,11 @@
       <c r="G283" s="1">
         <v>4.5493810062406004</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H283" s="1">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>46.2</v>
       </c>
@@ -6922,8 +7774,11 @@
       <c r="G284" s="1">
         <v>4.2429471973298298</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H284" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>640.70000000000005</v>
       </c>
@@ -6945,8 +7800,11 @@
       <c r="G285" s="1">
         <v>4.8591156018777104</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H285" s="1">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>292.39999999999998</v>
       </c>
@@ -6968,8 +7826,11 @@
       <c r="G286" s="1">
         <v>4.9312549007389999</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H286" s="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>623.1</v>
       </c>
@@ -6991,8 +7852,11 @@
       <c r="G287" s="1">
         <v>4.9429124732645802</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H287" s="1">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>268.5</v>
       </c>
@@ -7014,8 +7878,11 @@
       <c r="G288" s="1">
         <v>4.2484033150214104</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H288" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>829.4</v>
       </c>
@@ -7037,8 +7904,11 @@
       <c r="G289" s="1">
         <v>5.0258616113166497</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H289" s="1">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>504.1</v>
       </c>
@@ -7060,8 +7930,11 @@
       <c r="G290" s="1">
         <v>4.7415933537934496</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H290" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>105.8</v>
       </c>
@@ -7083,8 +7956,11 @@
       <c r="G291" s="1">
         <v>4.9158857606487603</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H291" s="1">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>407.6</v>
       </c>
@@ -7106,8 +7982,11 @@
       <c r="G292" s="1">
         <v>4.8473482270620201</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H292" s="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>296.39999999999998</v>
       </c>
@@ -7129,8 +8008,11 @@
       <c r="G293" s="1">
         <v>4.6383529591110797</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H293" s="1">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>673.9</v>
       </c>
@@ -7152,8 +8034,11 @@
       <c r="G294" s="1">
         <v>4.6328935641454603</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H294" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>777.1</v>
       </c>
@@ -7175,8 +8060,11 @@
       <c r="G295" s="1">
         <v>4.5252599004114904</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H295" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>127.7</v>
       </c>
@@ -7198,8 +8086,11 @@
       <c r="G296" s="1">
         <v>4.76316374110786</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H296" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>650.79999999999995</v>
       </c>
@@ -7221,8 +8112,11 @@
       <c r="G297" s="1">
         <v>4.9817560203306304</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H297" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>161.30000000000001</v>
       </c>
@@ -7244,8 +8138,11 @@
       <c r="G298" s="1">
         <v>4.9922470646628003</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H298" s="1">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>239.7</v>
       </c>
@@ -7267,8 +8164,11 @@
       <c r="G299" s="1">
         <v>5.0892623687136602</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H299" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>771</v>
       </c>
@@ -7290,8 +8190,11 @@
       <c r="G300" s="1">
         <v>4.27552397240538</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H300" s="1">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>266.3</v>
       </c>
@@ -7313,8 +8216,11 @@
       <c r="G301" s="1">
         <v>4.7471366292604404</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H301" s="1">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>238.9</v>
       </c>
@@ -7336,8 +8242,11 @@
       <c r="G302" s="1">
         <v>4.6352387108736401</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H302" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>772.8</v>
       </c>
@@ -7359,8 +8268,11 @@
       <c r="G303" s="1">
         <v>4.8707300871799397</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H303" s="1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>15.5</v>
       </c>
@@ -7382,8 +8294,11 @@
       <c r="G304" s="1">
         <v>4.6844293337653804</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H304" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>829.2</v>
       </c>
@@ -7405,8 +8320,11 @@
       <c r="G305" s="1">
         <v>4.2036723445161401</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H305" s="1">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>724.7</v>
       </c>
@@ -7428,8 +8346,11 @@
       <c r="G306" s="1">
         <v>5.0463037925771603</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H306" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>465.3</v>
       </c>
@@ -7451,8 +8372,11 @@
       <c r="G307" s="1">
         <v>4.4638151340868903</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H307" s="1">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>977.1</v>
       </c>
@@ -7474,8 +8398,11 @@
       <c r="G308" s="1">
         <v>4.4979892014400802</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H308" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>532.20000000000005</v>
       </c>
@@ -7497,8 +8424,11 @@
       <c r="G309" s="1">
         <v>4.9347893449632902</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H309" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>14.6</v>
       </c>
@@ -7520,8 +8450,11 @@
       <c r="G310" s="1">
         <v>4.9121537298604796</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H310" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>543.6</v>
       </c>
@@ -7543,8 +8476,11 @@
       <c r="G311" s="1">
         <v>4.0778396384753997</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H311" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>418.4</v>
       </c>
@@ -7566,8 +8502,11 @@
       <c r="G312" s="1">
         <v>5.1874456696701001</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H312" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>884.3</v>
       </c>
@@ -7589,8 +8528,11 @@
       <c r="G313" s="1">
         <v>4.9011133969348801</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H313" s="1">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>57</v>
       </c>
@@ -7612,8 +8554,11 @@
       <c r="G314" s="1">
         <v>4.7384635155564103</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H314" s="1">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>37</v>
       </c>
@@ -7635,8 +8580,11 @@
       <c r="G315" s="1">
         <v>4.7683869429467798</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H315" s="1">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>682.3</v>
       </c>
@@ -7658,8 +8606,11 @@
       <c r="G316" s="1">
         <v>4.6828386972820599</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H316" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>759.4</v>
       </c>
@@ -7681,8 +8632,11 @@
       <c r="G317" s="1">
         <v>4.1572111416700501</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H317" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>602.29999999999995</v>
       </c>
@@ -7704,8 +8658,11 @@
       <c r="G318" s="1">
         <v>4.42005340495826</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H318" s="1">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>472.8</v>
       </c>
@@ -7727,8 +8684,11 @@
       <c r="G319" s="1">
         <v>4.5148778883527303</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H319" s="1">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>384.5</v>
       </c>
@@ -7750,8 +8710,11 @@
       <c r="G320" s="1">
         <v>4.4554443748458104</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H320" s="1">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>736.3</v>
       </c>
@@ -7773,8 +8736,11 @@
       <c r="G321" s="1">
         <v>4.9740685460645997</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H321" s="1">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>311.3</v>
       </c>
@@ -7796,8 +8762,11 @@
       <c r="G322" s="1">
         <v>3.9834306468049401</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H322" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>272.2</v>
       </c>
@@ -7819,8 +8788,11 @@
       <c r="G323" s="1">
         <v>4.5326561016401898</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H323" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>331.1</v>
       </c>
@@ -7842,8 +8814,11 @@
       <c r="G324" s="1">
         <v>4.4872263637877801</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H324" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>409.7</v>
       </c>
@@ -7865,8 +8840,11 @@
       <c r="G325" s="1">
         <v>4.5392923235488496</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H325" s="1">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>221.7</v>
       </c>
@@ -7888,8 +8866,11 @@
       <c r="G326" s="1">
         <v>4.5560245708974598</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H326" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>533.5</v>
       </c>
@@ -7911,8 +8892,11 @@
       <c r="G327" s="1">
         <v>4.8881478089003298</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H327" s="1">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>283.7</v>
       </c>
@@ -7934,8 +8918,11 @@
       <c r="G328" s="1">
         <v>4.8845356322948197</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H328" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>110.9</v>
       </c>
@@ -7957,8 +8944,11 @@
       <c r="G329" s="1">
         <v>4.34093231022847</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H329" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>122.7</v>
       </c>
@@ -7980,8 +8970,11 @@
       <c r="G330" s="1">
         <v>4.2104430909324799</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H330" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>719</v>
       </c>
@@ -8003,8 +8996,11 @@
       <c r="G331" s="1">
         <v>4.3466256059434798</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H331" s="1">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>262.60000000000002</v>
       </c>
@@ -8026,8 +9022,11 @@
       <c r="G332" s="1">
         <v>4.6326974585443601</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H332" s="1">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>791.5</v>
       </c>
@@ -8049,8 +9048,11 @@
       <c r="G333" s="1">
         <v>5.1929432707944603</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H333" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>811.2</v>
       </c>
@@ -8072,8 +9074,11 @@
       <c r="G334" s="1">
         <v>4.1597229635666899</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H334" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>714.2</v>
       </c>
@@ -8095,8 +9100,11 @@
       <c r="G335" s="1">
         <v>4.9098819039106996</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H335" s="1">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>963.2</v>
       </c>
@@ -8118,8 +9126,11 @@
       <c r="G336" s="1">
         <v>4.94355366859687</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H336" s="1">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>237.7</v>
       </c>
@@ -8141,8 +9152,11 @@
       <c r="G337" s="1">
         <v>4.2212763275704503</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H337" s="1">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>694.5</v>
       </c>
@@ -8164,8 +9178,11 @@
       <c r="G338" s="1">
         <v>4.9224401502083399</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H338" s="1">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>457.3</v>
       </c>
@@ -8187,8 +9204,11 @@
       <c r="G339" s="1">
         <v>4.6089345931456203</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H339" s="1">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>84.2</v>
       </c>
@@ -8210,8 +9230,11 @@
       <c r="G340" s="1">
         <v>4.8037532476513896</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H340" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>523.70000000000005</v>
       </c>
@@ -8233,8 +9256,11 @@
       <c r="G341" s="1">
         <v>4.9552220705033001</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H341" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>316.3</v>
       </c>
@@ -8256,8 +9282,11 @@
       <c r="G342" s="1">
         <v>5.09099918621488</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H342" s="1">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>411.8</v>
       </c>
@@ -8279,8 +9308,11 @@
       <c r="G343" s="1">
         <v>4.4454445840776904</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H343" s="1">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>866.8</v>
       </c>
@@ -8302,8 +9334,11 @@
       <c r="G344" s="1">
         <v>4.38966044899807</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H344" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>113.6</v>
       </c>
@@ -8325,8 +9360,11 @@
       <c r="G345" s="1">
         <v>5.0605939553517398</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H345" s="1">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>765</v>
       </c>
@@ -8348,8 +9386,11 @@
       <c r="G346" s="1">
         <v>4.8569229090160002</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H346" s="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>202.6</v>
       </c>
@@ -8371,8 +9412,11 @@
       <c r="G347" s="1">
         <v>4.5937209684003903</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H347" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>856.4</v>
       </c>
@@ -8394,8 +9438,11 @@
       <c r="G348" s="1">
         <v>5.0274217548398497</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H348" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>143.69999999999999</v>
       </c>
@@ -8417,8 +9464,11 @@
       <c r="G349" s="1">
         <v>4.7466748254232103</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H349" s="1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>723</v>
       </c>
@@ -8440,8 +9490,11 @@
       <c r="G350" s="1">
         <v>4.2580413244819404</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H350" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>284.7</v>
       </c>
@@ -8463,8 +9516,11 @@
       <c r="G351" s="1">
         <v>4.9268921148443301</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H351" s="1">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>866.7</v>
       </c>
@@ -8486,8 +9542,11 @@
       <c r="G352" s="1">
         <v>4.2694543652956902</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H352" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>941.1</v>
       </c>
@@ -8509,8 +9568,11 @@
       <c r="G353" s="1">
         <v>4.39828284082739</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H353" s="1">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>179.1</v>
       </c>
@@ -8532,8 +9594,11 @@
       <c r="G354" s="1">
         <v>4.5106505978222398</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H354" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>954</v>
       </c>
@@ -8555,8 +9620,11 @@
       <c r="G355" s="1">
         <v>4.9434004221374099</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H355" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>77.5</v>
       </c>
@@ -8578,8 +9646,11 @@
       <c r="G356" s="1">
         <v>4.7231731913953698</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H356" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>514</v>
       </c>
@@ -8601,8 +9672,11 @@
       <c r="G357" s="1">
         <v>4.8485501973998497</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H357" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>457.2</v>
       </c>
@@ -8624,8 +9698,11 @@
       <c r="G358" s="1">
         <v>4.7931455651119403</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H358" s="1">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>83.6</v>
       </c>
@@ -8647,8 +9724,11 @@
       <c r="G359" s="1">
         <v>5.1252715037924501</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H359" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>181.1</v>
       </c>
@@ -8670,8 +9750,11 @@
       <c r="G360" s="1">
         <v>4.4305292142650803</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H360" s="1">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>751</v>
       </c>
@@ -8693,8 +9776,11 @@
       <c r="G361" s="1">
         <v>4.2470808559544002</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H361" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>485.5</v>
       </c>
@@ -8716,8 +9802,11 @@
       <c r="G362" s="1">
         <v>4.9713686940521802</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H362" s="1">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>424.7</v>
       </c>
@@ -8739,8 +9828,11 @@
       <c r="G363" s="1">
         <v>4.7299301642571399</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H363" s="1">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>606</v>
       </c>
@@ -8762,8 +9854,11 @@
       <c r="G364" s="1">
         <v>4.8943822821783796</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H364" s="1">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>485</v>
       </c>
@@ -8785,8 +9880,11 @@
       <c r="G365" s="1">
         <v>4.7242364763081204</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H365" s="1">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>65.5</v>
       </c>
@@ -8808,8 +9906,11 @@
       <c r="G366" s="1">
         <v>5.0789928018108697</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H366" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>770.4</v>
       </c>
@@ -8831,8 +9932,11 @@
       <c r="G367" s="1">
         <v>4.2843618287803604</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H367" s="1">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>839.3</v>
       </c>
@@ -8854,8 +9958,11 @@
       <c r="G368" s="1">
         <v>5.0420098461520002</v>
       </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H368" s="1">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>475</v>
       </c>
@@ -8877,8 +9984,11 @@
       <c r="G369" s="1">
         <v>4.3908176492532798</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H369" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>625.79999999999995</v>
       </c>
@@ -8900,8 +10010,11 @@
       <c r="G370" s="1">
         <v>4.6262739893804197</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H370" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>499.8</v>
       </c>
@@ -8923,8 +10036,11 @@
       <c r="G371" s="1">
         <v>4.4646436415310697</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H371" s="1">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>423.1</v>
       </c>
@@ -8946,8 +10062,11 @@
       <c r="G372" s="1">
         <v>4.7076032759764699</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H372" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>283.7</v>
       </c>
@@ -8969,8 +10088,11 @@
       <c r="G373" s="1">
         <v>4.96886960820739</v>
       </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H373" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>855.3</v>
       </c>
@@ -8992,8 +10114,11 @@
       <c r="G374" s="1">
         <v>4.2396648047203698</v>
       </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H374" s="1">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>121.1</v>
       </c>
@@ -9015,8 +10140,11 @@
       <c r="G375" s="1">
         <v>4.8847991290540298</v>
       </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H375" s="1">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>257</v>
       </c>
@@ -9038,8 +10166,11 @@
       <c r="G376" s="1">
         <v>4.8796717873281796</v>
       </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H376" s="1">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>603.9</v>
       </c>
@@ -9061,8 +10192,11 @@
       <c r="G377" s="1">
         <v>4.2971239865372102</v>
       </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H377" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>217.5</v>
       </c>
@@ -9084,8 +10218,11 @@
       <c r="G378" s="1">
         <v>4.6745684650933903</v>
       </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H378" s="1">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>13.1</v>
       </c>
@@ -9107,8 +10244,11 @@
       <c r="G379" s="1">
         <v>5.17986094288253</v>
       </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H379" s="1">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>971.3</v>
       </c>
@@ -9130,8 +10270,11 @@
       <c r="G380" s="1">
         <v>4.3548953838223499</v>
       </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H380" s="1">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>889.1</v>
       </c>
@@ -9153,8 +10296,11 @@
       <c r="G381" s="1">
         <v>5.0628616475415402</v>
       </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H381" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>583</v>
       </c>
@@ -9176,8 +10322,11 @@
       <c r="G382" s="1">
         <v>5.0629182889344602</v>
       </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H382" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>417.3</v>
       </c>
@@ -9199,8 +10348,11 @@
       <c r="G383" s="1">
         <v>4.9083098011468396</v>
       </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H383" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>414.4</v>
       </c>
@@ -9222,8 +10374,11 @@
       <c r="G384" s="1">
         <v>4.6531921933616198</v>
       </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H384" s="1">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>210.3</v>
       </c>
@@ -9245,8 +10400,11 @@
       <c r="G385" s="1">
         <v>4.6352636224590897</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H385" s="1">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>939.7</v>
       </c>
@@ -9268,8 +10426,11 @@
       <c r="G386" s="1">
         <v>4.6810096559563297</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H386" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>882.2</v>
       </c>
@@ -9291,8 +10452,11 @@
       <c r="G387" s="1">
         <v>4.2666880616080798</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H387" s="1">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>972.9</v>
       </c>
@@ -9314,8 +10478,11 @@
       <c r="G388" s="1">
         <v>4.9072570812987202</v>
       </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H388" s="1">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>404.4</v>
       </c>
@@ -9337,8 +10504,11 @@
       <c r="G389" s="1">
         <v>5.0133046037387397</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H389" s="1">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>26.1</v>
       </c>
@@ -9360,8 +10530,11 @@
       <c r="G390" s="1">
         <v>4.8127468489106597</v>
       </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H390" s="1">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>362.3</v>
       </c>
@@ -9383,8 +10556,11 @@
       <c r="G391" s="1">
         <v>4.38315862182891</v>
       </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H391" s="1">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>341.5</v>
       </c>
@@ -9406,8 +10582,11 @@
       <c r="G392" s="1">
         <v>4.9044463347621896</v>
       </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H392" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>204.3</v>
       </c>
@@ -9429,8 +10608,11 @@
       <c r="G393" s="1">
         <v>5.0496733917141796</v>
       </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H393" s="1">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>311.3</v>
       </c>
@@ -9452,8 +10634,11 @@
       <c r="G394" s="1">
         <v>4.6722771817658098</v>
       </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H394" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>887.1</v>
       </c>
@@ -9475,8 +10660,11 @@
       <c r="G395" s="1">
         <v>4.6102122950011797</v>
       </c>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H395" s="1">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>519.6</v>
       </c>
@@ -9498,8 +10686,11 @@
       <c r="G396" s="1">
         <v>4.8444123668707801</v>
       </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H396" s="1">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>329.3</v>
       </c>
@@ -9521,8 +10712,11 @@
       <c r="G397" s="1">
         <v>4.3837825500844803</v>
       </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H397" s="1">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>317.39999999999998</v>
       </c>
@@ -9544,8 +10738,11 @@
       <c r="G398" s="1">
         <v>4.9967739403066798</v>
       </c>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H398" s="1">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>67.3</v>
       </c>
@@ -9567,8 +10764,11 @@
       <c r="G399" s="1">
         <v>4.6553319991670596</v>
       </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H399" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>481.7</v>
       </c>
@@ -9590,8 +10790,11 @@
       <c r="G400" s="1">
         <v>4.1754689237942602</v>
       </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H400" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>101.7</v>
       </c>
@@ -9613,8 +10816,11 @@
       <c r="G401" s="1">
         <v>5.1946435729833498</v>
       </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H401" s="1">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>321.89999999999998</v>
       </c>
@@ -9636,8 +10842,11 @@
       <c r="G402" s="1">
         <v>4.8273255981555101</v>
       </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H402" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>168.2</v>
       </c>
@@ -9659,8 +10868,11 @@
       <c r="G403" s="1">
         <v>4.4852462853291302</v>
       </c>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H403" s="1">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>21.2</v>
       </c>
@@ -9682,8 +10894,11 @@
       <c r="G404" s="1">
         <v>4.7739983922805802</v>
       </c>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H404" s="1">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>496.9</v>
       </c>
@@ -9705,8 +10920,11 @@
       <c r="G405" s="1">
         <v>4.67286314095825</v>
       </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H405" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>569.70000000000005</v>
       </c>
@@ -9728,8 +10946,11 @@
       <c r="G406" s="1">
         <v>5.0493767146250397</v>
       </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H406" s="1">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>59.2</v>
       </c>
@@ -9751,8 +10972,11 @@
       <c r="G407" s="1">
         <v>4.74940262463865</v>
       </c>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H407" s="1">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>732.8</v>
       </c>
@@ -9774,8 +10998,11 @@
       <c r="G408" s="1">
         <v>4.5563703286979402</v>
       </c>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H408" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>75.099999999999994</v>
       </c>
@@ -9797,8 +11024,11 @@
       <c r="G409" s="1">
         <v>5.2626741282778902</v>
       </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H409" s="1">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>532.20000000000005</v>
       </c>
@@ -9820,8 +11050,11 @@
       <c r="G410" s="1">
         <v>4.9212254704381104</v>
       </c>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H410" s="1">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>779.9</v>
       </c>
@@ -9843,8 +11076,11 @@
       <c r="G411" s="1">
         <v>4.9741047218326297</v>
       </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H411" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>265.5</v>
       </c>
@@ -9866,8 +11102,11 @@
       <c r="G412" s="1">
         <v>4.7319492019831602</v>
       </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H412" s="1">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>317.60000000000002</v>
       </c>
@@ -9889,8 +11128,11 @@
       <c r="G413" s="1">
         <v>4.36652802830457</v>
       </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H413" s="1">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>917.2</v>
       </c>
@@ -9912,8 +11154,11 @@
       <c r="G414" s="1">
         <v>4.5731490001253503</v>
       </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H414" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>941.5</v>
       </c>
@@ -9935,8 +11180,11 @@
       <c r="G415" s="1">
         <v>4.6915965448448897</v>
       </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H415" s="1">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>751.1</v>
       </c>
@@ -9958,8 +11206,11 @@
       <c r="G416" s="1">
         <v>5.0707577869905203</v>
       </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H416" s="1">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>890.3</v>
       </c>
@@ -9981,8 +11232,11 @@
       <c r="G417" s="1">
         <v>4.9892779811975698</v>
       </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H417" s="1">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>716.3</v>
       </c>
@@ -10004,8 +11258,11 @@
       <c r="G418" s="1">
         <v>4.4669646423099802</v>
       </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H418" s="1">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>940.6</v>
       </c>
@@ -10027,8 +11284,11 @@
       <c r="G419" s="1">
         <v>4.7063320240024504</v>
       </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H419" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>761.1</v>
       </c>
@@ -10050,8 +11310,11 @@
       <c r="G420" s="1">
         <v>4.9431299060547804</v>
       </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H420" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>521.20000000000005</v>
       </c>
@@ -10073,8 +11336,11 @@
       <c r="G421" s="1">
         <v>4.9099293035770399</v>
       </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H421" s="1">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>717.1</v>
       </c>
@@ -10096,8 +11362,11 @@
       <c r="G422" s="1">
         <v>4.8708682178085301</v>
       </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H422" s="1">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>170</v>
       </c>
@@ -10119,8 +11388,11 @@
       <c r="G423" s="1">
         <v>4.6828122926932201</v>
       </c>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H423" s="1">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>161.69999999999999</v>
       </c>
@@ -10142,8 +11414,11 @@
       <c r="G424" s="1">
         <v>4.45877500529902</v>
       </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H424" s="1">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>366.7</v>
       </c>
@@ -10165,8 +11440,11 @@
       <c r="G425" s="1">
         <v>4.9470517662096301</v>
       </c>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H425" s="1">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>356.3</v>
       </c>
@@ -10188,8 +11466,11 @@
       <c r="G426" s="1">
         <v>4.7076912503365804</v>
       </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H426" s="1">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>155.5</v>
       </c>
@@ -10211,8 +11492,11 @@
       <c r="G427" s="1">
         <v>4.3937794761693896</v>
       </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H427" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>162.69999999999999</v>
       </c>
@@ -10234,8 +11518,11 @@
       <c r="G428" s="1">
         <v>4.63988013774257</v>
       </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H428" s="1">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>132.80000000000001</v>
       </c>
@@ -10257,8 +11544,11 @@
       <c r="G429" s="1">
         <v>4.3061067415395504</v>
       </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H429" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>704.2</v>
       </c>
@@ -10280,8 +11570,11 @@
       <c r="G430" s="1">
         <v>4.9211922733944702</v>
       </c>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H430" s="1">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>756.4</v>
       </c>
@@ -10303,8 +11596,11 @@
       <c r="G431" s="1">
         <v>4.9920066704466901</v>
       </c>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H431" s="1">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>626.29999999999995</v>
       </c>
@@ -10326,8 +11622,11 @@
       <c r="G432" s="1">
         <v>5.0908880889733297</v>
       </c>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H432" s="1">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>785.8</v>
       </c>
@@ -10349,8 +11648,11 @@
       <c r="G433" s="1">
         <v>4.9858125341069801</v>
       </c>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H433" s="1">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>7.4</v>
       </c>
@@ -10372,8 +11674,11 @@
       <c r="G434" s="1">
         <v>4.1598392321711302</v>
       </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H434" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>18.2</v>
       </c>
@@ -10395,8 +11700,11 @@
       <c r="G435" s="1">
         <v>4.5335844381281296</v>
       </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H435" s="1">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>365.3</v>
       </c>
@@ -10418,8 +11726,11 @@
       <c r="G436" s="1">
         <v>4.51948303929115</v>
       </c>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H436" s="1">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>941.8</v>
       </c>
@@ -10441,8 +11752,11 @@
       <c r="G437" s="1">
         <v>4.1164894986635598</v>
       </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H437" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>764.4</v>
       </c>
@@ -10464,8 +11778,11 @@
       <c r="G438" s="1">
         <v>4.8249162868782296</v>
       </c>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H438" s="1">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>838.3</v>
       </c>
@@ -10487,8 +11804,11 @@
       <c r="G439" s="1">
         <v>4.2190590164466997</v>
       </c>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H439" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>863</v>
       </c>
@@ -10510,8 +11830,11 @@
       <c r="G440" s="1">
         <v>4.9883411110867</v>
       </c>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H440" s="1">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>165.6</v>
       </c>
@@ -10533,8 +11856,11 @@
       <c r="G441" s="1">
         <v>4.9470015240694298</v>
       </c>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H441" s="1">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>481.4</v>
       </c>
@@ -10556,8 +11882,11 @@
       <c r="G442" s="1">
         <v>4.9150893946726804</v>
       </c>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H442" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>276.2</v>
       </c>
@@ -10579,8 +11908,11 @@
       <c r="G443" s="1">
         <v>5.1097701978563403</v>
       </c>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H443" s="1">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>454</v>
       </c>
@@ -10602,8 +11934,11 @@
       <c r="G444" s="1">
         <v>4.58919656439212</v>
       </c>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H444" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>160.30000000000001</v>
       </c>
@@ -10625,8 +11960,11 @@
       <c r="G445" s="1">
         <v>4.7115662544321903</v>
       </c>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H445" s="1">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>412.9</v>
       </c>
@@ -10648,8 +11986,11 @@
       <c r="G446" s="1">
         <v>4.7915323358264299</v>
       </c>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H446" s="1">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>735.2</v>
       </c>
@@ -10671,8 +12012,11 @@
       <c r="G447" s="1">
         <v>4.8453428738363797</v>
       </c>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H447" s="1">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>523</v>
       </c>
@@ -10694,8 +12038,11 @@
       <c r="G448" s="1">
         <v>5.1454911845498303</v>
       </c>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H448" s="1">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>490.3</v>
       </c>
@@ -10717,8 +12064,11 @@
       <c r="G449" s="1">
         <v>4.3828785437573696</v>
       </c>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H449" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>922.9</v>
       </c>
@@ -10740,8 +12090,11 @@
       <c r="G450" s="1">
         <v>5.1088167718797797</v>
       </c>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H450" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>46.2</v>
       </c>
@@ -10763,8 +12116,11 @@
       <c r="G451" s="1">
         <v>5.1926752058980901</v>
       </c>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H451" s="1">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>70.900000000000006</v>
       </c>
@@ -10786,8 +12142,11 @@
       <c r="G452" s="1">
         <v>4.7692754836348898</v>
       </c>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H452" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>533.6</v>
       </c>
@@ -10809,8 +12168,11 @@
       <c r="G453" s="1">
         <v>4.9709758289653498</v>
       </c>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H453" s="1">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>182.6</v>
       </c>
@@ -10832,8 +12194,11 @@
       <c r="G454" s="1">
         <v>4.35759699607208</v>
       </c>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H454" s="1">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>22.9</v>
       </c>
@@ -10855,8 +12220,11 @@
       <c r="G455" s="1">
         <v>4.7832609133027004</v>
       </c>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H455" s="1">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>346.6</v>
       </c>
@@ -10878,8 +12246,11 @@
       <c r="G456" s="1">
         <v>4.6837908495109</v>
       </c>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H456" s="1">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>456.1</v>
       </c>
@@ -10901,8 +12272,11 @@
       <c r="G457" s="1">
         <v>4.9243143464883596</v>
       </c>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H457" s="1">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>519.4</v>
       </c>
@@ -10924,8 +12298,11 @@
       <c r="G458" s="1">
         <v>4.9779635681852303</v>
       </c>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H458" s="1">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>115.1</v>
       </c>
@@ -10947,8 +12324,11 @@
       <c r="G459" s="1">
         <v>4.5557751881112996</v>
       </c>
-    </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H459" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>914.1</v>
       </c>
@@ -10970,8 +12350,11 @@
       <c r="G460" s="1">
         <v>4.8700474657742001</v>
       </c>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H460" s="1">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>766.8</v>
       </c>
@@ -10993,8 +12376,11 @@
       <c r="G461" s="1">
         <v>4.7974632180417203</v>
       </c>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H461" s="1">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>785</v>
       </c>
@@ -11016,8 +12402,11 @@
       <c r="G462" s="1">
         <v>4.9916890713660198</v>
       </c>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H462" s="1">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>110.2</v>
       </c>
@@ -11039,8 +12428,11 @@
       <c r="G463" s="1">
         <v>4.83286466100901</v>
       </c>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H463" s="1">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>87.4</v>
       </c>
@@ -11062,8 +12454,11 @@
       <c r="G464" s="1">
         <v>4.7037849100426596</v>
       </c>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H464" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>255</v>
       </c>
@@ -11085,8 +12480,11 @@
       <c r="G465" s="1">
         <v>4.7716346037480202</v>
       </c>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H465" s="1">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>520.29999999999995</v>
       </c>
@@ -11108,8 +12506,11 @@
       <c r="G466" s="1">
         <v>4.8911263903277602</v>
       </c>
-    </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H466" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>112</v>
       </c>
@@ -11131,8 +12532,11 @@
       <c r="G467" s="1">
         <v>4.2959510396239198</v>
       </c>
-    </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H467" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>130.30000000000001</v>
       </c>
@@ -11154,8 +12558,11 @@
       <c r="G468" s="1">
         <v>4.4274845923148201</v>
       </c>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H468" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>959.6</v>
       </c>
@@ -11177,8 +12584,11 @@
       <c r="G469" s="1">
         <v>4.7983048227139697</v>
       </c>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H469" s="1">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>528.4</v>
       </c>
@@ -11200,8 +12610,11 @@
       <c r="G470" s="1">
         <v>4.9238942225043898</v>
       </c>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H470" s="1">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>230.4</v>
       </c>
@@ -11223,8 +12636,11 @@
       <c r="G471" s="1">
         <v>4.7490879738284502</v>
       </c>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H471" s="1">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>215.8</v>
       </c>
@@ -11246,8 +12662,11 @@
       <c r="G472" s="1">
         <v>4.8169445894870098</v>
       </c>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H472" s="1">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>546.79999999999995</v>
       </c>
@@ -11269,8 +12688,11 @@
       <c r="G473" s="1">
         <v>4.5470139182306397</v>
       </c>
-    </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H473" s="1">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>417.9</v>
       </c>
@@ -11292,8 +12714,11 @@
       <c r="G474" s="1">
         <v>5.0168442268973799</v>
       </c>
-    </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H474" s="1">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>336.2</v>
       </c>
@@ -11315,8 +12740,11 @@
       <c r="G475" s="1">
         <v>4.6006744773393304</v>
       </c>
-    </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H475" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>333.7</v>
       </c>
@@ -11338,8 +12766,11 @@
       <c r="G476" s="1">
         <v>4.63597695004795</v>
       </c>
-    </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H476" s="1">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>769.4</v>
       </c>
@@ -11361,8 +12792,11 @@
       <c r="G477" s="1">
         <v>4.9332904925116203</v>
       </c>
-    </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H477" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>685.3</v>
       </c>
@@ -11384,8 +12818,11 @@
       <c r="G478" s="1">
         <v>4.9407077815331499</v>
       </c>
-    </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H478" s="1">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>306.3</v>
       </c>
@@ -11407,8 +12844,11 @@
       <c r="G479" s="1">
         <v>4.8732929588340701</v>
       </c>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H479" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>905.2</v>
       </c>
@@ -11430,8 +12870,11 @@
       <c r="G480" s="1">
         <v>4.8365118854379103</v>
       </c>
-    </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H480" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>824.5</v>
       </c>
@@ -11453,8 +12896,11 @@
       <c r="G481" s="1">
         <v>4.81591951368355</v>
       </c>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H481" s="1">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>271.2</v>
       </c>
@@ -11476,8 +12922,11 @@
       <c r="G482" s="1">
         <v>4.7774632954045604</v>
       </c>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H482" s="1">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>976.7</v>
       </c>
@@ -11499,8 +12948,11 @@
       <c r="G483" s="1">
         <v>4.3608261433286897</v>
       </c>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H483" s="1">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>461.8</v>
       </c>
@@ -11522,8 +12974,11 @@
       <c r="G484" s="1">
         <v>4.47515355991621</v>
       </c>
-    </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H484" s="1">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>262.7</v>
       </c>
@@ -11545,8 +13000,11 @@
       <c r="G485" s="1">
         <v>4.5384858116216398</v>
       </c>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H485" s="1">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>202.2</v>
       </c>
@@ -11568,8 +13026,11 @@
       <c r="G486" s="1">
         <v>4.8893786873616403</v>
       </c>
-    </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H486" s="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>462.2</v>
       </c>
@@ -11591,8 +13052,11 @@
       <c r="G487" s="1">
         <v>4.9243016556038599</v>
       </c>
-    </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H487" s="1">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>744.8</v>
       </c>
@@ -11614,8 +13078,11 @@
       <c r="G488" s="1">
         <v>4.5542115606095797</v>
       </c>
-    </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H488" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>375.3</v>
       </c>
@@ -11637,8 +13104,11 @@
       <c r="G489" s="1">
         <v>4.5876235967234598</v>
       </c>
-    </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H489" s="1">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>707.1</v>
       </c>
@@ -11660,8 +13130,11 @@
       <c r="G490" s="1">
         <v>4.9354709194410198</v>
       </c>
-    </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H490" s="1">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>995.7</v>
       </c>
@@ -11683,8 +13156,11 @@
       <c r="G491" s="1">
         <v>4.4205673461285402</v>
       </c>
-    </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H491" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>602.79999999999995</v>
       </c>
@@ -11706,8 +13182,11 @@
       <c r="G492" s="1">
         <v>4.4285045763623296</v>
       </c>
-    </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H492" s="1">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>406.9</v>
       </c>
@@ -11729,8 +13208,11 @@
       <c r="G493" s="1">
         <v>4.7805704406840501</v>
       </c>
-    </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H493" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>474.7</v>
       </c>
@@ -11752,8 +13234,11 @@
       <c r="G494" s="1">
         <v>4.9974142443541103</v>
       </c>
-    </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H494" s="1">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>134.9</v>
       </c>
@@ -11775,8 +13260,11 @@
       <c r="G495" s="1">
         <v>5.12622380354067</v>
       </c>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H495" s="1">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>863.2</v>
       </c>
@@ -11798,8 +13286,11 @@
       <c r="G496" s="1">
         <v>4.2978491750229502</v>
       </c>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H496" s="1">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>334.6</v>
       </c>
@@ -11821,8 +13312,11 @@
       <c r="G497" s="1">
         <v>4.6201548177460596</v>
       </c>
-    </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H497" s="1">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>322.10000000000002</v>
       </c>
@@ -11844,8 +13338,11 @@
       <c r="G498" s="1">
         <v>4.4709730054455701</v>
       </c>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H498" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>136.30000000000001</v>
       </c>
@@ -11867,8 +13364,11 @@
       <c r="G499" s="1">
         <v>5.1159176008207297</v>
       </c>
-    </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H499" s="1">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>901.1</v>
       </c>
@@ -11890,8 +13390,11 @@
       <c r="G500" s="1">
         <v>4.3496793505803</v>
       </c>
-    </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H500" s="1">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>118.4</v>
       </c>
@@ -11913,8 +13416,11 @@
       <c r="G501" s="1">
         <v>5.0653782292854803</v>
       </c>
-    </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H501" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>357.8</v>
       </c>
@@ -11936,8 +13442,11 @@
       <c r="G502" s="1">
         <v>4.8858357710298099</v>
       </c>
-    </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H502" s="1">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>774.8</v>
       </c>
@@ -11959,8 +13468,11 @@
       <c r="G503" s="1">
         <v>4.2920066367937002</v>
       </c>
-    </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H503" s="1">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>832.8</v>
       </c>
@@ -11982,8 +13494,11 @@
       <c r="G504" s="1">
         <v>4.3185958745834201</v>
       </c>
-    </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H504" s="1">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>569.4</v>
       </c>
@@ -12005,8 +13520,11 @@
       <c r="G505" s="1">
         <v>4.9782456505383497</v>
       </c>
-    </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H505" s="1">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>714.3</v>
       </c>
@@ -12028,8 +13546,11 @@
       <c r="G506" s="1">
         <v>5.0224711026089901</v>
       </c>
-    </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H506" s="1">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>238.4</v>
       </c>
@@ -12051,8 +13572,11 @@
       <c r="G507" s="1">
         <v>4.6324624523319304</v>
       </c>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H507" s="1">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>675.6</v>
       </c>
@@ -12074,8 +13598,11 @@
       <c r="G508" s="1">
         <v>4.9171490202935102</v>
       </c>
-    </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H508" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>256</v>
       </c>
@@ -12097,8 +13624,11 @@
       <c r="G509" s="1">
         <v>4.1930335124839697</v>
       </c>
-    </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H509" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>371.1</v>
       </c>
@@ -12120,8 +13650,11 @@
       <c r="G510" s="1">
         <v>5.2459183648994703</v>
       </c>
-    </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H510" s="1">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>338.8</v>
       </c>
@@ -12143,8 +13676,11 @@
       <c r="G511" s="1">
         <v>4.5623722329790803</v>
       </c>
-    </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H511" s="1">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>422.9</v>
       </c>
@@ -12166,8 +13702,11 @@
       <c r="G512" s="1">
         <v>4.6026086111914903</v>
       </c>
-    </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H512" s="1">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>434.5</v>
       </c>
@@ -12189,8 +13728,11 @@
       <c r="G513" s="1">
         <v>4.53339078834163</v>
       </c>
-    </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H513" s="1">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>161.30000000000001</v>
       </c>
@@ -12212,8 +13754,11 @@
       <c r="G514" s="1">
         <v>4.6965653096611799</v>
       </c>
-    </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H514" s="1">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>798.1</v>
       </c>
@@ -12235,8 +13780,11 @@
       <c r="G515" s="1">
         <v>4.8094462223826202</v>
       </c>
-    </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H515" s="1">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>369.7</v>
       </c>
@@ -12258,8 +13806,11 @@
       <c r="G516" s="1">
         <v>4.9471749787755304</v>
       </c>
-    </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H516" s="1">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>648.20000000000005</v>
       </c>
@@ -12281,8 +13832,11 @@
       <c r="G517" s="1">
         <v>4.4289967559281296</v>
       </c>
-    </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H517" s="1">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>198.2</v>
       </c>
@@ -12304,8 +13858,11 @@
       <c r="G518" s="1">
         <v>4.9692588973613603</v>
       </c>
-    </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H518" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>406.1</v>
       </c>
@@ -12327,8 +13884,11 @@
       <c r="G519" s="1">
         <v>4.60592096005022</v>
       </c>
-    </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H519" s="1">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>403</v>
       </c>
@@ -12350,8 +13910,11 @@
       <c r="G520" s="1">
         <v>4.9564280341336904</v>
       </c>
-    </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H520" s="1">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>838.8</v>
       </c>
@@ -12373,8 +13936,11 @@
       <c r="G521" s="1">
         <v>4.5319409476921297</v>
       </c>
-    </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H521" s="1">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>406.2</v>
       </c>
@@ -12396,8 +13962,11 @@
       <c r="G522" s="1">
         <v>5.1246625340051404</v>
       </c>
-    </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H522" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>176.2</v>
       </c>
@@ -12419,8 +13988,11 @@
       <c r="G523" s="1">
         <v>4.6494740095701603</v>
       </c>
-    </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H523" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>548.6</v>
       </c>
@@ -12442,8 +14014,11 @@
       <c r="G524" s="1">
         <v>4.3102303781295497</v>
       </c>
-    </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H524" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>303.60000000000002</v>
       </c>
@@ -12465,8 +14040,11 @@
       <c r="G525" s="1">
         <v>4.7799377084292898</v>
       </c>
-    </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H525" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>284.2</v>
       </c>
@@ -12488,8 +14066,11 @@
       <c r="G526" s="1">
         <v>5.1641150132568603</v>
       </c>
-    </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H526" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>160</v>
       </c>
@@ -12511,8 +14092,11 @@
       <c r="G527" s="1">
         <v>4.78074645259208</v>
       </c>
-    </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H527" s="1">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>166.6</v>
       </c>
@@ -12534,8 +14118,11 @@
       <c r="G528" s="1">
         <v>4.8406816775373596</v>
       </c>
-    </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H528" s="1">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>417.8</v>
       </c>
@@ -12557,8 +14144,11 @@
       <c r="G529" s="1">
         <v>4.7022518928153501</v>
       </c>
-    </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H529" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>274</v>
       </c>
@@ -12580,8 +14170,11 @@
       <c r="G530" s="1">
         <v>4.5005111874595602</v>
       </c>
-    </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H530" s="1">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>404.8</v>
       </c>
@@ -12603,8 +14196,11 @@
       <c r="G531" s="1">
         <v>4.32070982365732</v>
       </c>
-    </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H531" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>114.8</v>
       </c>
@@ -12626,8 +14222,11 @@
       <c r="G532" s="1">
         <v>4.9835227662168498</v>
       </c>
-    </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H532" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>199.5</v>
       </c>
@@ -12649,8 +14248,11 @@
       <c r="G533" s="1">
         <v>4.7404177801098601</v>
       </c>
-    </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H533" s="1">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>34.6</v>
       </c>
@@ -12672,8 +14274,11 @@
       <c r="G534" s="1">
         <v>4.6252645209456498</v>
       </c>
-    </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H534" s="1">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>894.7</v>
       </c>
@@ -12695,8 +14300,11 @@
       <c r="G535" s="1">
         <v>4.33951796806274</v>
       </c>
-    </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H535" s="1">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>613.6</v>
       </c>
@@ -12718,8 +14326,11 @@
       <c r="G536" s="1">
         <v>4.1294047711956701</v>
       </c>
-    </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H536" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>308.89999999999998</v>
       </c>
@@ -12741,8 +14352,11 @@
       <c r="G537" s="1">
         <v>4.2272854857609596</v>
       </c>
-    </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H537" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>482</v>
       </c>
@@ -12764,8 +14378,11 @@
       <c r="G538" s="1">
         <v>4.2264309458146299</v>
       </c>
-    </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H538" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>791.1</v>
       </c>
@@ -12787,8 +14404,11 @@
       <c r="G539" s="1">
         <v>4.6498372717240501</v>
       </c>
-    </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H539" s="1">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>90.7</v>
       </c>
@@ -12810,8 +14430,11 @@
       <c r="G540" s="1">
         <v>5.0310423807721598</v>
       </c>
-    </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H540" s="1">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>207.8</v>
       </c>
@@ -12833,8 +14456,11 @@
       <c r="G541" s="1">
         <v>4.8743141348715699</v>
       </c>
-    </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H541" s="1">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>934.6</v>
       </c>
@@ -12856,8 +14482,11 @@
       <c r="G542" s="1">
         <v>5.0470554607950202</v>
       </c>
-    </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H542" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>670</v>
       </c>
@@ -12879,8 +14508,11 @@
       <c r="G543" s="1">
         <v>4.9424762286110999</v>
       </c>
-    </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H543" s="1">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>420.9</v>
       </c>
@@ -12902,8 +14534,11 @@
       <c r="G544" s="1">
         <v>4.1086023925399298</v>
       </c>
-    </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H544" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>252.9</v>
       </c>
@@ -12925,8 +14560,11 @@
       <c r="G545" s="1">
         <v>4.5062785587109202</v>
       </c>
-    </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H545" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>553.1</v>
       </c>
@@ -12948,8 +14586,11 @@
       <c r="G546" s="1">
         <v>4.4404597360483997</v>
       </c>
-    </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H546" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>866.7</v>
       </c>
@@ -12971,8 +14612,11 @@
       <c r="G547" s="1">
         <v>4.9021560426390902</v>
       </c>
-    </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H547" s="1">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>388.1</v>
       </c>
@@ -12994,8 +14638,11 @@
       <c r="G548" s="1">
         <v>4.58545535593636</v>
       </c>
-    </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H548" s="1">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>693.1</v>
       </c>
@@ -13017,8 +14664,11 @@
       <c r="G549" s="1">
         <v>4.9990769286369803</v>
       </c>
-    </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H549" s="1">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>615.70000000000005</v>
       </c>
@@ -13040,8 +14690,11 @@
       <c r="G550" s="1">
         <v>4.2064829305241496</v>
       </c>
-    </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H550" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>982.9</v>
       </c>
@@ -13063,8 +14716,11 @@
       <c r="G551" s="1">
         <v>4.4659955641001998</v>
       </c>
-    </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H551" s="1">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>714.7</v>
       </c>
@@ -13086,8 +14742,11 @@
       <c r="G552" s="1">
         <v>4.46177696299877</v>
       </c>
-    </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H552" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>212.8</v>
       </c>
@@ -13109,8 +14768,11 @@
       <c r="G553" s="1">
         <v>4.3324007756479199</v>
       </c>
-    </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H553" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>352.1</v>
       </c>
@@ -13132,8 +14794,11 @@
       <c r="G554" s="1">
         <v>5.0425773422017697</v>
       </c>
-    </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H554" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>438</v>
       </c>
@@ -13155,8 +14820,11 @@
       <c r="G555" s="1">
         <v>4.8060526415498996</v>
       </c>
-    </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H555" s="1">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>435.1</v>
       </c>
@@ -13178,8 +14846,11 @@
       <c r="G556" s="1">
         <v>5.18359956807718</v>
       </c>
-    </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H556" s="1">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>969.3</v>
       </c>
@@ -13201,8 +14872,11 @@
       <c r="G557" s="1">
         <v>4.3285311917144798</v>
       </c>
-    </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H557" s="1">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>461.1</v>
       </c>
@@ -13224,8 +14898,11 @@
       <c r="G558" s="1">
         <v>5.0476779996887702</v>
       </c>
-    </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H558" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>644.4</v>
       </c>
@@ -13247,8 +14924,11 @@
       <c r="G559" s="1">
         <v>4.4268449165173802</v>
       </c>
-    </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H559" s="1">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>420.4</v>
       </c>
@@ -13270,8 +14950,11 @@
       <c r="G560" s="1">
         <v>4.7120169927597804</v>
       </c>
-    </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H560" s="1">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>599.20000000000005</v>
       </c>
@@ -13293,8 +14976,11 @@
       <c r="G561" s="1">
         <v>4.7957547546902397</v>
       </c>
-    </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H561" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>751.7</v>
       </c>
@@ -13316,8 +15002,11 @@
       <c r="G562" s="1">
         <v>4.2996670508421202</v>
       </c>
-    </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H562" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>984.9</v>
       </c>
@@ -13339,8 +15028,11 @@
       <c r="G563" s="1">
         <v>4.14998601492616</v>
       </c>
-    </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H563" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>172.2</v>
       </c>
@@ -13362,8 +15054,11 @@
       <c r="G564" s="1">
         <v>4.4246648413871403</v>
       </c>
-    </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H564" s="1">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>303</v>
       </c>
@@ -13385,8 +15080,11 @@
       <c r="G565" s="1">
         <v>5.0674783335725797</v>
       </c>
-    </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H565" s="1">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <v>133.19999999999999</v>
       </c>
@@ -13408,8 +15106,11 @@
       <c r="G566" s="1">
         <v>4.3729260756931003</v>
       </c>
-    </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H566" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>556.1</v>
       </c>
@@ -13431,8 +15132,11 @@
       <c r="G567" s="1">
         <v>5.0743730429237202</v>
       </c>
-    </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H567" s="1">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <v>563.9</v>
       </c>
@@ -13454,8 +15158,11 @@
       <c r="G568" s="1">
         <v>4.9394050378548</v>
       </c>
-    </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H568" s="1">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>474.6</v>
       </c>
@@ -13477,8 +15184,11 @@
       <c r="G569" s="1">
         <v>4.8619930043082897</v>
       </c>
-    </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H569" s="1">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>173.9</v>
       </c>
@@ -13500,8 +15210,11 @@
       <c r="G570" s="1">
         <v>4.9800144416878096</v>
       </c>
-    </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H570" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>48.8</v>
       </c>
@@ -13523,8 +15236,11 @@
       <c r="G571" s="1">
         <v>4.7749877683710498</v>
       </c>
-    </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H571" s="1">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <v>302.60000000000002</v>
       </c>
@@ -13546,8 +15262,11 @@
       <c r="G572" s="1">
         <v>5.3087233205960196</v>
       </c>
-    </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H572" s="1">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>793.5</v>
       </c>
@@ -13569,8 +15288,11 @@
       <c r="G573" s="1">
         <v>4.8545172221271997</v>
       </c>
-    </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H573" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>477.2</v>
       </c>
@@ -13592,8 +15314,11 @@
       <c r="G574" s="1">
         <v>4.5877644353707296</v>
       </c>
-    </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H574" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>78.5</v>
       </c>
@@ -13615,8 +15340,11 @@
       <c r="G575" s="1">
         <v>4.5878821513560597</v>
       </c>
-    </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H575" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <v>463.3</v>
       </c>
@@ -13638,8 +15366,11 @@
       <c r="G576" s="1">
         <v>5.1180267068800802</v>
       </c>
-    </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H576" s="1">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>466.2</v>
       </c>
@@ -13661,8 +15392,11 @@
       <c r="G577" s="1">
         <v>4.9726270294278399</v>
       </c>
-    </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H577" s="1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>341.9</v>
       </c>
@@ -13684,8 +15418,11 @@
       <c r="G578" s="1">
         <v>4.5194802633978099</v>
       </c>
-    </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H578" s="1">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -13707,8 +15444,11 @@
       <c r="G579" s="1">
         <v>4.6636891645182796</v>
       </c>
-    </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H579" s="1">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>414.6</v>
       </c>
@@ -13730,8 +15470,11 @@
       <c r="G580" s="1">
         <v>4.8165464653404504</v>
       </c>
-    </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H580" s="1">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>910.6</v>
       </c>
@@ -13753,8 +15496,11 @@
       <c r="G581" s="1">
         <v>4.9496182405586504</v>
       </c>
-    </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H581" s="1">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>527.1</v>
       </c>
@@ -13776,8 +15522,11 @@
       <c r="G582" s="1">
         <v>4.97638579951749</v>
       </c>
-    </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H582" s="1">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>981.8</v>
       </c>
@@ -13799,8 +15548,11 @@
       <c r="G583" s="1">
         <v>4.4722815296037597</v>
       </c>
-    </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H583" s="1">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>23.4</v>
       </c>
@@ -13822,8 +15574,11 @@
       <c r="G584" s="1">
         <v>4.7631799952915301</v>
       </c>
-    </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H584" s="1">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>161.19999999999999</v>
       </c>
@@ -13845,8 +15600,11 @@
       <c r="G585" s="1">
         <v>4.79289948632678</v>
       </c>
-    </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H585" s="1">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>24.3</v>
       </c>
@@ -13868,8 +15626,11 @@
       <c r="G586" s="1">
         <v>4.7869175297158604</v>
       </c>
-    </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H586" s="1">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>612.79999999999995</v>
       </c>
@@ -13891,8 +15652,11 @@
       <c r="G587" s="1">
         <v>4.4308818909368997</v>
       </c>
-    </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H587" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>34.5</v>
       </c>
@@ -13914,8 +15678,11 @@
       <c r="G588" s="1">
         <v>4.67959579330482</v>
       </c>
-    </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H588" s="1">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>575.9</v>
       </c>
@@ -13937,8 +15704,11 @@
       <c r="G589" s="1">
         <v>4.2030060067911199</v>
       </c>
-    </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H589" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>322.7</v>
       </c>
@@ -13960,8 +15730,11 @@
       <c r="G590" s="1">
         <v>4.3713961416261498</v>
       </c>
-    </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H590" s="1">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>796.2</v>
       </c>
@@ -13983,8 +15756,11 @@
       <c r="G591" s="1">
         <v>4.6808174754304002</v>
       </c>
-    </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H591" s="1">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>62.9</v>
       </c>
@@ -14006,8 +15782,11 @@
       <c r="G592" s="1">
         <v>4.7241790526170497</v>
       </c>
-    </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H592" s="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>69.900000000000006</v>
       </c>
@@ -14029,8 +15808,11 @@
       <c r="G593" s="1">
         <v>4.4735803150500297</v>
       </c>
-    </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H593" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>367.9</v>
       </c>
@@ -14052,8 +15834,11 @@
       <c r="G594" s="1">
         <v>4.16894049574804</v>
       </c>
-    </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H594" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <v>227.2</v>
       </c>
@@ -14075,8 +15860,11 @@
       <c r="G595" s="1">
         <v>4.6111329867279398</v>
       </c>
-    </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H595" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>251</v>
       </c>
@@ -14098,8 +15886,11 @@
       <c r="G596" s="1">
         <v>4.8032122576168801</v>
       </c>
-    </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H596" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>823.9</v>
       </c>
@@ -14121,8 +15912,11 @@
       <c r="G597" s="1">
         <v>4.6065882299928598</v>
       </c>
-    </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H597" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>753.1</v>
       </c>
@@ -14144,8 +15938,11 @@
       <c r="G598" s="1">
         <v>4.62578662672255</v>
       </c>
-    </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H598" s="1">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>928.7</v>
       </c>
@@ -14167,8 +15964,11 @@
       <c r="G599" s="1">
         <v>4.2965205966945099</v>
       </c>
-    </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H599" s="1">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>963</v>
       </c>
@@ -14190,8 +15990,11 @@
       <c r="G600" s="1">
         <v>4.8749246112387503</v>
       </c>
-    </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H600" s="1">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>992.5</v>
       </c>
@@ -14213,8 +16016,11 @@
       <c r="G601" s="1">
         <v>4.9752419946509097</v>
       </c>
-    </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H601" s="1">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>227.9</v>
       </c>
@@ -14236,8 +16042,11 @@
       <c r="G602" s="1">
         <v>4.8604952913470303</v>
       </c>
-    </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H602" s="1">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>615.5</v>
       </c>
@@ -14259,8 +16068,11 @@
       <c r="G603" s="1">
         <v>4.6499361403848303</v>
       </c>
-    </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H603" s="1">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>998.5</v>
       </c>
@@ -14282,8 +16094,11 @@
       <c r="G604" s="1">
         <v>4.8485683289845696</v>
       </c>
-    </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H604" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>590.5</v>
       </c>
@@ -14305,8 +16120,11 @@
       <c r="G605" s="1">
         <v>5.0043587131288803</v>
       </c>
-    </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H605" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>823.4</v>
       </c>
@@ -14328,8 +16146,11 @@
       <c r="G606" s="1">
         <v>4.0832741579838903</v>
       </c>
-    </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H606" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>465.7</v>
       </c>
@@ -14351,8 +16172,11 @@
       <c r="G607" s="1">
         <v>4.5040529149072297</v>
       </c>
-    </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H607" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>22.9</v>
       </c>
@@ -14374,8 +16198,11 @@
       <c r="G608" s="1">
         <v>4.6904881504828202</v>
       </c>
-    </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H608" s="1">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>312.60000000000002</v>
       </c>
@@ -14397,8 +16224,11 @@
       <c r="G609" s="1">
         <v>4.41027970055538</v>
       </c>
-    </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H609" s="1">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>254.3</v>
       </c>
@@ -14420,8 +16250,11 @@
       <c r="G610" s="1">
         <v>4.81441281669</v>
       </c>
-    </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H610" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>368.9</v>
       </c>
@@ -14443,8 +16276,11 @@
       <c r="G611" s="1">
         <v>4.6704637421309201</v>
       </c>
-    </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H611" s="1">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>21.5</v>
       </c>
@@ -14466,8 +16302,11 @@
       <c r="G612" s="1">
         <v>4.6583324644567403</v>
       </c>
-    </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H612" s="1">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>590.5</v>
       </c>
@@ -14489,8 +16328,11 @@
       <c r="G613" s="1">
         <v>4.5777445611773304</v>
       </c>
-    </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H613" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>648.9</v>
       </c>
@@ -14512,8 +16354,11 @@
       <c r="G614" s="1">
         <v>5.0674169468916501</v>
       </c>
-    </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H614" s="1">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <v>212.2</v>
       </c>
@@ -14535,8 +16380,11 @@
       <c r="G615" s="1">
         <v>4.9836289960805296</v>
       </c>
-    </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H615" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>70.8</v>
       </c>
@@ -14558,8 +16406,11 @@
       <c r="G616" s="1">
         <v>4.30873283613938</v>
       </c>
-    </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H616" s="1">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>815.9</v>
       </c>
@@ -14581,8 +16432,11 @@
       <c r="G617" s="1">
         <v>4.2855867308107296</v>
       </c>
-    </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H617" s="1">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>439.8</v>
       </c>
@@ -14604,8 +16458,11 @@
       <c r="G618" s="1">
         <v>4.5094222601466196</v>
       </c>
-    </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H618" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>57.7</v>
       </c>
@@ -14627,8 +16484,11 @@
       <c r="G619" s="1">
         <v>5.1127450371115604</v>
       </c>
-    </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H619" s="1">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>279.3</v>
       </c>
@@ -14650,8 +16510,11 @@
       <c r="G620" s="1">
         <v>4.79589090103687</v>
       </c>
-    </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H620" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>848.7</v>
       </c>
@@ -14673,8 +16536,11 @@
       <c r="G621" s="1">
         <v>4.4722759647421899</v>
       </c>
-    </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H621" s="1">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>171.6</v>
       </c>
@@ -14696,8 +16562,11 @@
       <c r="G622" s="1">
         <v>5.0304061400764599</v>
       </c>
-    </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H622" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>159.5</v>
       </c>
@@ -14719,8 +16588,11 @@
       <c r="G623" s="1">
         <v>4.81157864689572</v>
       </c>
-    </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H623" s="1">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>472</v>
       </c>
@@ -14742,8 +16614,11 @@
       <c r="G624" s="1">
         <v>4.3155193466613504</v>
       </c>
-    </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H624" s="1">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>895.8</v>
       </c>
@@ -14765,8 +16640,11 @@
       <c r="G625" s="1">
         <v>4.9418236997688201</v>
       </c>
-    </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H625" s="1">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>727.5</v>
       </c>
@@ -14788,8 +16666,11 @@
       <c r="G626" s="1">
         <v>4.1542117753489904</v>
       </c>
-    </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H626" s="1">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>680.5</v>
       </c>
@@ -14811,8 +16692,11 @@
       <c r="G627" s="1">
         <v>4.6584177535344997</v>
       </c>
-    </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H627" s="1">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>726.3</v>
       </c>
@@ -14834,8 +16718,11 @@
       <c r="G628" s="1">
         <v>4.6361100736655496</v>
       </c>
-    </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H628" s="1">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>557</v>
       </c>
@@ -14857,8 +16744,11 @@
       <c r="G629" s="1">
         <v>4.8377780083678799</v>
       </c>
-    </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H629" s="1">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>299.5</v>
       </c>
@@ -14880,8 +16770,11 @@
       <c r="G630" s="1">
         <v>5.1390054489401003</v>
       </c>
-    </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H630" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>1.8</v>
       </c>
@@ -14903,8 +16796,11 @@
       <c r="G631" s="1">
         <v>5.1121607118177499</v>
       </c>
-    </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H631" s="1">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>451.7</v>
       </c>
@@ -14926,8 +16822,11 @@
       <c r="G632" s="1">
         <v>4.3800956557704396</v>
       </c>
-    </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H632" s="1">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>804.8</v>
       </c>
@@ -14949,8 +16848,11 @@
       <c r="G633" s="1">
         <v>4.7851288416385804</v>
       </c>
-    </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H633" s="1">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>121.7</v>
       </c>
@@ -14972,8 +16874,11 @@
       <c r="G634" s="1">
         <v>4.9488103382093902</v>
       </c>
-    </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H634" s="1">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>419.6</v>
       </c>
@@ -14995,8 +16900,11 @@
       <c r="G635" s="1">
         <v>4.7017983516866497</v>
       </c>
-    </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H635" s="1">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>298.2</v>
       </c>
@@ -15018,8 +16926,11 @@
       <c r="G636" s="1">
         <v>4.9780148132128703</v>
       </c>
-    </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H636" s="1">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>589.29999999999995</v>
       </c>
@@ -15041,8 +16952,11 @@
       <c r="G637" s="1">
         <v>4.67185417104215</v>
       </c>
-    </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H637" s="1">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>66.5</v>
       </c>
@@ -15064,8 +16978,11 @@
       <c r="G638" s="1">
         <v>4.8318379114651604</v>
       </c>
-    </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H638" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>326.5</v>
       </c>
@@ -15087,8 +17004,11 @@
       <c r="G639" s="1">
         <v>4.5016594495051896</v>
       </c>
-    </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H639" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>648</v>
       </c>
@@ -15110,8 +17030,11 @@
       <c r="G640" s="1">
         <v>4.7748691471881504</v>
       </c>
-    </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H640" s="1">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <v>704.7</v>
       </c>
@@ -15133,8 +17056,11 @@
       <c r="G641" s="1">
         <v>5.0630578729169597</v>
       </c>
-    </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H641" s="1">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <v>180.8</v>
       </c>
@@ -15156,8 +17082,11 @@
       <c r="G642" s="1">
         <v>5.0011061367447001</v>
       </c>
-    </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H642" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <v>258.3</v>
       </c>
@@ -15179,8 +17108,11 @@
       <c r="G643" s="1">
         <v>5.0947718550123202</v>
       </c>
-    </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H643" s="1">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>919.2</v>
       </c>
@@ -15202,8 +17134,11 @@
       <c r="G644" s="1">
         <v>4.5533818705239</v>
       </c>
-    </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H644" s="1">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>939.6</v>
       </c>
@@ -15225,8 +17160,11 @@
       <c r="G645" s="1">
         <v>5.0686094898617302</v>
       </c>
-    </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H645" s="1">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <v>641.9</v>
       </c>
@@ -15248,8 +17186,11 @@
       <c r="G646" s="1">
         <v>4.89134426680757</v>
       </c>
-    </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H646" s="1">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>769.6</v>
       </c>
@@ -15271,8 +17212,11 @@
       <c r="G647" s="1">
         <v>4.9281828131357202</v>
       </c>
-    </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H647" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <v>189.9</v>
       </c>
@@ -15294,8 +17238,11 @@
       <c r="G648" s="1">
         <v>4.8128201805645396</v>
       </c>
-    </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H648" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <v>757.9</v>
       </c>
@@ -15317,8 +17264,11 @@
       <c r="G649" s="1">
         <v>4.46534987761083</v>
       </c>
-    </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H649" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>149.1</v>
       </c>
@@ -15340,8 +17290,11 @@
       <c r="G650" s="1">
         <v>4.5202905718295696</v>
       </c>
-    </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H650" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <v>118.6</v>
       </c>
@@ -15363,8 +17316,11 @@
       <c r="G651" s="1">
         <v>4.2525190188723299</v>
       </c>
-    </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H651" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A652" s="1">
         <v>837.3</v>
       </c>
@@ -15386,8 +17342,11 @@
       <c r="G652" s="1">
         <v>4.8322483484471297</v>
       </c>
-    </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H652" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <v>302.60000000000002</v>
       </c>
@@ -15409,8 +17368,11 @@
       <c r="G653" s="1">
         <v>4.5322639153688398</v>
       </c>
-    </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H653" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <v>410</v>
       </c>
@@ -15432,8 +17394,11 @@
       <c r="G654" s="1">
         <v>4.7356611090596497</v>
       </c>
-    </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H654" s="1">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <v>804.5</v>
       </c>
@@ -15455,8 +17420,11 @@
       <c r="G655" s="1">
         <v>4.7941534790984397</v>
       </c>
-    </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H655" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <v>749.4</v>
       </c>
@@ -15478,8 +17446,11 @@
       <c r="G656" s="1">
         <v>4.2981289542832899</v>
       </c>
-    </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H656" s="1">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <v>914.9</v>
       </c>
@@ -15501,8 +17472,11 @@
       <c r="G657" s="1">
         <v>4.2220097871028903</v>
       </c>
-    </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H657" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
         <v>281.8</v>
       </c>
@@ -15524,8 +17498,11 @@
       <c r="G658" s="1">
         <v>4.1851417399867197</v>
       </c>
-    </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H658" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <v>851.5</v>
       </c>
@@ -15547,8 +17524,11 @@
       <c r="G659" s="1">
         <v>4.2941979381589404</v>
       </c>
-    </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H659" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
         <v>357.8</v>
       </c>
@@ -15570,8 +17550,11 @@
       <c r="G660" s="1">
         <v>4.5689630794107803</v>
       </c>
-    </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H660" s="1">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
         <v>364</v>
       </c>
@@ -15593,8 +17576,11 @@
       <c r="G661" s="1">
         <v>5.1251023116568497</v>
       </c>
-    </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H661" s="1">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A662" s="1">
         <v>690.6</v>
       </c>
@@ -15616,8 +17602,11 @@
       <c r="G662" s="1">
         <v>4.5329502749675301</v>
       </c>
-    </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H662" s="1">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
         <v>921.6</v>
       </c>
@@ -15639,8 +17628,11 @@
       <c r="G663" s="1">
         <v>4.3610372250151901</v>
       </c>
-    </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H663" s="1">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A664" s="1">
         <v>917.4</v>
       </c>
@@ -15662,8 +17654,11 @@
       <c r="G664" s="1">
         <v>4.4135826803875702</v>
       </c>
-    </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H664" s="1">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A665" s="1">
         <v>557.79999999999995</v>
       </c>
@@ -15685,8 +17680,11 @@
       <c r="G665" s="1">
         <v>4.7180411617451297</v>
       </c>
-    </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H665" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A666" s="1">
         <v>802.3</v>
       </c>
@@ -15708,8 +17706,11 @@
       <c r="G666" s="1">
         <v>5.0668602687405802</v>
       </c>
-    </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H666" s="1">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <v>648.6</v>
       </c>
@@ -15731,8 +17732,11 @@
       <c r="G667" s="1">
         <v>5.0992460572857699</v>
       </c>
-    </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H667" s="1">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A668" s="1">
         <v>289.7</v>
       </c>
@@ -15754,8 +17758,11 @@
       <c r="G668" s="1">
         <v>4.9047652771372698</v>
       </c>
-    </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H668" s="1">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A669" s="1">
         <v>398.8</v>
       </c>
@@ -15777,8 +17784,11 @@
       <c r="G669" s="1">
         <v>4.1991453991511296</v>
       </c>
-    </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H669" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A670" s="1">
         <v>756.8</v>
       </c>
@@ -15800,8 +17810,11 @@
       <c r="G670" s="1">
         <v>4.1556151588077102</v>
       </c>
-    </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H670" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A671" s="1">
         <v>344.6</v>
       </c>
@@ -15823,8 +17836,11 @@
       <c r="G671" s="1">
         <v>4.34148301229542</v>
       </c>
-    </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H671" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A672" s="1">
         <v>829.2</v>
       </c>
@@ -15846,8 +17862,11 @@
       <c r="G672" s="1">
         <v>5.0064365191385001</v>
       </c>
-    </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H672" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A673" s="1">
         <v>794.1</v>
       </c>
@@ -15869,8 +17888,11 @@
       <c r="G673" s="1">
         <v>4.5453627334026896</v>
       </c>
-    </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H673" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A674" s="1">
         <v>301.60000000000002</v>
       </c>
@@ -15892,8 +17914,11 @@
       <c r="G674" s="1">
         <v>5.0486776235309199</v>
       </c>
-    </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H674" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A675" s="1">
         <v>43</v>
       </c>
@@ -15915,8 +17940,11 @@
       <c r="G675" s="1">
         <v>5.1270608117713898</v>
       </c>
-    </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H675" s="1">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A676" s="1">
         <v>53.1</v>
       </c>
@@ -15938,8 +17966,11 @@
       <c r="G676" s="1">
         <v>5.1219324283083596</v>
       </c>
-    </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H676" s="1">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A677" s="1">
         <v>694</v>
       </c>
@@ -15961,8 +17992,11 @@
       <c r="G677" s="1">
         <v>4.5160099189357004</v>
       </c>
-    </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H677" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A678" s="1">
         <v>98.2</v>
       </c>
@@ -15984,8 +18018,11 @@
       <c r="G678" s="1">
         <v>4.7242406795627501</v>
       </c>
-    </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H678" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A679" s="1">
         <v>73.400000000000006</v>
       </c>
@@ -16007,8 +18044,11 @@
       <c r="G679" s="1">
         <v>4.9684456618502502</v>
       </c>
-    </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H679" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A680" s="1">
         <v>44.2</v>
       </c>
@@ -16030,8 +18070,11 @@
       <c r="G680" s="1">
         <v>4.6885272320064502</v>
       </c>
-    </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H680" s="1">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A681" s="1">
         <v>108.7</v>
       </c>
@@ -16053,8 +18096,11 @@
       <c r="G681" s="1">
         <v>4.9102162306025203</v>
       </c>
-    </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H681" s="1">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A682" s="1">
         <v>910.9</v>
       </c>
@@ -16076,8 +18122,11 @@
       <c r="G682" s="1">
         <v>4.1330807276128203</v>
       </c>
-    </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H682" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A683" s="1">
         <v>154.6</v>
       </c>
@@ -16099,8 +18148,11 @@
       <c r="G683" s="1">
         <v>4.2620911725595203</v>
       </c>
-    </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H683" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A684" s="1">
         <v>465.9</v>
       </c>
@@ -16122,8 +18174,11 @@
       <c r="G684" s="1">
         <v>4.5760215627875196</v>
       </c>
-    </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H684" s="1">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A685" s="1">
         <v>32.5</v>
       </c>
@@ -16145,8 +18200,11 @@
       <c r="G685" s="1">
         <v>5.0304194155208197</v>
       </c>
-    </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H685" s="1">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A686" s="1">
         <v>569.9</v>
       </c>
@@ -16168,8 +18226,11 @@
       <c r="G686" s="1">
         <v>4.5974395951202203</v>
       </c>
-    </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H686" s="1">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A687" s="1">
         <v>605.79999999999995</v>
       </c>
@@ -16191,8 +18252,11 @@
       <c r="G687" s="1">
         <v>4.4989807696727304</v>
       </c>
-    </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H687" s="1">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A688" s="1">
         <v>619.29999999999995</v>
       </c>
@@ -16214,8 +18278,11 @@
       <c r="G688" s="1">
         <v>4.7340231192843696</v>
       </c>
-    </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H688" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A689" s="1">
         <v>930.8</v>
       </c>
@@ -16237,8 +18304,11 @@
       <c r="G689" s="1">
         <v>4.98772645506636</v>
       </c>
-    </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H689" s="1">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A690" s="1">
         <v>631.20000000000005</v>
       </c>
@@ -16260,8 +18330,11 @@
       <c r="G690" s="1">
         <v>4.3591251655491803</v>
       </c>
-    </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H690" s="1">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A691" s="1">
         <v>630.79999999999995</v>
       </c>
@@ -16283,8 +18356,11 @@
       <c r="G691" s="1">
         <v>5.1627071685986996</v>
       </c>
-    </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H691" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A692" s="1">
         <v>662.4</v>
       </c>
@@ -16306,8 +18382,11 @@
       <c r="G692" s="1">
         <v>4.6315687020062297</v>
       </c>
-    </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H692" s="1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A693" s="1">
         <v>113.6</v>
       </c>
@@ -16329,8 +18408,11 @@
       <c r="G693" s="1">
         <v>4.8919977618510497</v>
       </c>
-    </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H693" s="1">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A694" s="1">
         <v>168.7</v>
       </c>
@@ -16352,8 +18434,11 @@
       <c r="G694" s="1">
         <v>4.9470518531816898</v>
       </c>
-    </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H694" s="1">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A695" s="1">
         <v>628.20000000000005</v>
       </c>
@@ -16375,8 +18460,11 @@
       <c r="G695" s="1">
         <v>4.9281942732553503</v>
       </c>
-    </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H695" s="1">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A696" s="1">
         <v>209.3</v>
       </c>
@@ -16398,8 +18486,11 @@
       <c r="G696" s="1">
         <v>4.3361738331866002</v>
       </c>
-    </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H696" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A697" s="1">
         <v>827.8</v>
       </c>
@@ -16421,8 +18512,11 @@
       <c r="G697" s="1">
         <v>4.8900096063090999</v>
       </c>
-    </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H697" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A698" s="1">
         <v>228.6</v>
       </c>
@@ -16444,8 +18538,11 @@
       <c r="G698" s="1">
         <v>4.6256778176877704</v>
       </c>
-    </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H698" s="1">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A699" s="1">
         <v>849</v>
       </c>
@@ -16467,8 +18564,11 @@
       <c r="G699" s="1">
         <v>4.8537292088705097</v>
       </c>
-    </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H699" s="1">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A700" s="1">
         <v>558.29999999999995</v>
       </c>
@@ -16490,8 +18590,11 @@
       <c r="G700" s="1">
         <v>4.1773601707108199</v>
       </c>
-    </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H700" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A701" s="1">
         <v>567.9</v>
       </c>
@@ -16512,6 +18615,9 @@
       </c>
       <c r="G701" s="1">
         <v>4.4545522169343501</v>
+      </c>
+      <c r="H701" s="1">
+        <v>4.0999999999999996</v>
       </c>
     </row>
   </sheetData>
